--- a/Consumer/Ferrari.xlsx
+++ b/Consumer/Ferrari.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18B448C-F33B-3B4C-8CCF-9E3B97E586C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFA248E-B165-2549-AB31-FF6CB8C71035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="163">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -550,18 +550,28 @@
   </si>
   <si>
     <t>Shares</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +734,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -888,12 +898,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -952,12 +971,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1013,6 +1026,13 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1030,6 +1050,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2291,11 +2317,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>274.5</v>
+    <v>279.10000000000002</v>
     <v>161.4</v>
-    <v>0.59519999999999995</v>
-    <v>0.5</v>
-    <v>1.8500000000000001E-3</v>
+    <v>0.58779999999999999</v>
+    <v>0.3</v>
+    <v>1.111E-3</v>
     <v>EUR</v>
     <v>Ferrari NV, known as Ferrari, is an Italy-based designer, manufacturer and retailer of sports cars that is incorporated in the Netherlands. It operates under the Ferrari brand. Its sports cars portfolio includes, among others, F12berlinetta, FF, Ferrari 488 GTB, 488 Spider, 458 Speciale, Ferrari California T, F12tdf and LaFerrari. The Company also offers financing services through Ferrari Financial Services. It also produces limited series and one-off cars. The Company divides its regional markets in EMEA (Europe, the Middle East, India and Africa), Americas, Greater China and Rest of APAC (Asia-Pacific region, excluding Greater China) and is active in over 60 markets worldwide through a network of authorized dealers.</v>
     <v>4961</v>
@@ -2303,24 +2329,24 @@
     <v>XMIL</v>
     <v>XMIL</v>
     <v>Via Abetone Inferiore No. 4, MARANELLO, MODENA, 41053 IT</v>
-    <v>271.10000000000002</v>
+    <v>272.3</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45062.346724537034</v>
+    <v>45076.666666666664</v>
     <v>0</v>
-    <v>267.89999999999998</v>
-    <v>52824760000</v>
+    <v>269.39999999999998</v>
+    <v>52359340000</v>
     <v>Ferrari NV</v>
     <v>Ferrari NV</v>
-    <v>269.5</v>
+    <v>270.5</v>
     <v>49.745100000000001</v>
+    <v>270</v>
     <v>270.3</v>
-    <v>270.8</v>
     <v>193923500</v>
     <v>RACE</v>
     <v>Ferrari NV (XMIL:RACE)</v>
-    <v>38559</v>
-    <v>345150</v>
+    <v>193260</v>
+    <v>292150</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2890,10 +2916,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L111" sqref="L111"/>
+      <selection pane="bottomRight" activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3054,19 +3080,19 @@
         <v>5095254000</v>
       </c>
       <c r="N3" s="30">
-        <v>6297000000</v>
+        <v>5798000000</v>
       </c>
       <c r="O3" s="30">
-        <v>6812000000</v>
+        <v>6283000000</v>
       </c>
       <c r="P3" s="30">
-        <v>7293000000</v>
+        <v>6815000000</v>
       </c>
       <c r="Q3" s="30">
-        <v>7615000000</v>
+        <v>7095000000</v>
       </c>
       <c r="R3" s="30">
-        <v>8279000000</v>
+        <v>7556000000</v>
       </c>
       <c r="S3" s="18" t="s">
         <v>109</v>
@@ -3132,23 +3158,23 @@
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>0.2358559553655224</v>
+        <v>0.13792168162764806</v>
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>8.1784976973161783E-2</v>
+        <v>8.3649534322180141E-2</v>
       </c>
       <c r="P4" s="16">
         <f t="shared" si="0"/>
-        <v>7.0610687022900853E-2</v>
+        <v>8.4672926945726479E-2</v>
       </c>
       <c r="Q4" s="16">
         <f t="shared" si="0"/>
-        <v>4.4151926504867767E-2</v>
+        <v>4.1085840058693979E-2</v>
       </c>
       <c r="R4" s="16">
         <f t="shared" si="0"/>
-        <v>8.7196323046618618E-2</v>
+        <v>6.4975334742776614E-2</v>
       </c>
       <c r="S4" s="17">
         <f>(M4+L4+K4)/3</f>
@@ -3811,17 +3837,17 @@
         <f>(M35+L35+K35+J35+I35)/5</f>
         <v>-5.2652989868840188E-3</v>
       </c>
-      <c r="T16" s="32">
+      <c r="T16" s="72">
         <f>U101/M3</f>
-        <v>10.367443899754555</v>
-      </c>
-      <c r="U16" s="32">
+        <v>10.276100072734353</v>
+      </c>
+      <c r="U16" s="72">
         <f>U101/M28</f>
-        <v>56.641611642115599</v>
-      </c>
-      <c r="V16" s="33">
+        <v>56.142562732277234</v>
+      </c>
+      <c r="V16" s="73">
         <f>U101/M106</f>
-        <v>88.229342214487218</v>
+        <v>87.451985148341208</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -3908,6 +3934,15 @@
       <c r="S18" s="18" t="s">
         <v>125</v>
       </c>
+      <c r="T18" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="U18" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="V18" s="19" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -3949,9 +3984,36 @@
       <c r="M19" s="10">
         <v>1771507000</v>
       </c>
-      <c r="S19" s="34">
+      <c r="N19" s="59">
+        <v>2211000000</v>
+      </c>
+      <c r="O19" s="59">
+        <v>2457000000</v>
+      </c>
+      <c r="P19" s="59">
+        <v>2643000000</v>
+      </c>
+      <c r="Q19" s="59">
+        <v>2792000000</v>
+      </c>
+      <c r="R19" s="59">
+        <v>2870000000</v>
+      </c>
+      <c r="S19" s="32">
         <f>M40-M56-M61</f>
         <v>-1415810000</v>
+      </c>
+      <c r="T19" s="72">
+        <f>U101/N3</f>
+        <v>9.0305864091065882</v>
+      </c>
+      <c r="U19" s="72">
+        <f>U101/N28</f>
+        <v>45.411396357328705</v>
+      </c>
+      <c r="V19" s="73">
+        <f>U101/N105</f>
+        <v>53.487935437736233</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4003,11 +4065,26 @@
         <f t="shared" ref="M20" si="5">(M19/L19)-1</f>
         <v>0.15464188318967986</v>
       </c>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
+      <c r="N20" s="16">
+        <f t="shared" ref="N20" si="6">(N19/M19)-1</f>
+        <v>0.24808990311638612</v>
+      </c>
+      <c r="O20" s="16">
+        <f t="shared" ref="O20" si="7">(O19/N19)-1</f>
+        <v>0.11126187245590224</v>
+      </c>
+      <c r="P20" s="16">
+        <f t="shared" ref="P20" si="8">(P19/O19)-1</f>
+        <v>7.5702075702075655E-2</v>
+      </c>
+      <c r="Q20" s="16">
+        <f t="shared" ref="Q20" si="9">(Q19/P19)-1</f>
+        <v>5.6375331063185818E-2</v>
+      </c>
+      <c r="R20" s="16">
+        <f t="shared" ref="R20" si="10">(R19/Q19)-1</f>
+        <v>2.7936962750716443E-2</v>
+      </c>
       <c r="S20" s="15"/>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
@@ -4060,6 +4137,26 @@
       <c r="M21" s="2">
         <v>0.34770000000000001</v>
       </c>
+      <c r="N21" s="61">
+        <f>N19/N3</f>
+        <v>0.38133839254915486</v>
+      </c>
+      <c r="O21" s="61">
+        <f t="shared" ref="O21:R21" si="11">O19/O3</f>
+        <v>0.39105522839407925</v>
+      </c>
+      <c r="P21" s="61">
+        <f t="shared" si="11"/>
+        <v>0.38782098312545854</v>
+      </c>
+      <c r="Q21" s="61">
+        <f t="shared" si="11"/>
+        <v>0.39351656095842141</v>
+      </c>
+      <c r="R21" s="61">
+        <f t="shared" si="11"/>
+        <v>0.3798305982001059</v>
+      </c>
     </row>
     <row r="22" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -4346,6 +4443,21 @@
       </c>
       <c r="M28" s="11">
         <v>932614000</v>
+      </c>
+      <c r="N28" s="62">
+        <v>1153000000</v>
+      </c>
+      <c r="O28" s="62">
+        <v>1291000000</v>
+      </c>
+      <c r="P28" s="62">
+        <v>1434000000</v>
+      </c>
+      <c r="Q28" s="62">
+        <v>1556000000</v>
+      </c>
+      <c r="R28" s="62">
+        <v>1523000000</v>
       </c>
     </row>
     <row r="29" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -4366,42 +4478,57 @@
         <v>8.5544950866788039E-2</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:K29" si="6">(F28/E28)-1</f>
+        <f t="shared" ref="F29:K29" si="12">(F28/E28)-1</f>
         <v>0.10117801898450862</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.38547544264391131</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.34263796450012785</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.4656112425825516</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-0.11324390386884808</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-0.12647128990626855</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" ref="L29" si="7">(L28/K28)-1</f>
+        <f t="shared" ref="L29" si="13">(L28/K28)-1</f>
         <v>0.36680448227015705</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" ref="M29" si="8">(M28/L28)-1</f>
+        <f t="shared" ref="M29" si="14">(M28/L28)-1</f>
         <v>0.12259394029854342</v>
       </c>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
+      <c r="N29" s="16">
+        <f t="shared" ref="N29" si="15">(N28/M28)-1</f>
+        <v>0.23630998462386366</v>
+      </c>
+      <c r="O29" s="16">
+        <f t="shared" ref="O29" si="16">(O28/N28)-1</f>
+        <v>0.11968777103209027</v>
+      </c>
+      <c r="P29" s="16">
+        <f t="shared" ref="P29" si="17">(P28/O28)-1</f>
+        <v>0.11076684740511222</v>
+      </c>
+      <c r="Q29" s="16">
+        <f t="shared" ref="Q29" si="18">(Q28/P28)-1</f>
+        <v>8.5076708507670906E-2</v>
+      </c>
+      <c r="R29" s="16">
+        <f t="shared" ref="R29" si="19">(R28/Q28)-1</f>
+        <v>-2.1208226221079651E-2</v>
+      </c>
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
@@ -4454,6 +4581,26 @@
       <c r="M30" s="2">
         <v>0.183</v>
       </c>
+      <c r="N30" s="60">
+        <f>N28/N3</f>
+        <v>0.19886167644015176</v>
+      </c>
+      <c r="O30" s="60">
+        <f t="shared" ref="O30:R30" si="20">O28/O3</f>
+        <v>0.20547509151679133</v>
+      </c>
+      <c r="P30" s="60">
+        <f t="shared" si="20"/>
+        <v>0.21041819515774027</v>
+      </c>
+      <c r="Q30" s="60">
+        <f t="shared" si="20"/>
+        <v>0.2193093727977449</v>
+      </c>
+      <c r="R30" s="60">
+        <f t="shared" si="20"/>
+        <v>0.20156167284277396</v>
+      </c>
     </row>
     <row r="31" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -4494,6 +4641,21 @@
       </c>
       <c r="M31" s="12">
         <v>5.05</v>
+      </c>
+      <c r="N31" s="63">
+        <v>6.35</v>
+      </c>
+      <c r="O31" s="63">
+        <v>7.11</v>
+      </c>
+      <c r="P31" s="63">
+        <v>7.9</v>
+      </c>
+      <c r="Q31" s="63">
+        <v>8.57</v>
+      </c>
+      <c r="R31" s="63">
+        <v>8.39</v>
       </c>
     </row>
     <row r="32" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4629,43 +4791,43 @@
         <v>#VALUE!</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:K35" si="9">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:K35" si="21">(D34-C34)/C34</f>
         <v>7.4104813848707616E-6</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>-7.4104264700433511E-6</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>2.1172803956773601E-6</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>1.2703655476863467E-4</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>4.302816677780953E-3</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>-1.9234924298715738E-3</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>-9.8155168590346054E-3</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>-1.1496520649478764E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" ref="L35" si="10">(L34-K34)/K34</f>
+        <f t="shared" ref="L35" si="22">(L34-K34)/K34</f>
         <v>-3.0909649960351496E-3</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" ref="M35" si="11">(M34-L34)/L34</f>
+        <f t="shared" ref="M35" si="23">(M34-L34)/L34</f>
         <v>0</v>
       </c>
       <c r="N35" s="22"/>
@@ -6492,51 +6654,51 @@
         <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:M80" si="12">B79/B3</f>
+        <f t="shared" ref="B80:M80" si="24">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N80" s="15"/>
@@ -6676,10 +6838,10 @@
       <c r="M83" s="1">
         <v>-153890000</v>
       </c>
-      <c r="T83" s="63" t="s">
+      <c r="T83" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="U83" s="64"/>
+      <c r="U83" s="69"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6721,10 +6883,10 @@
       <c r="M84" s="1">
         <v>103981000</v>
       </c>
-      <c r="T84" s="65" t="s">
+      <c r="T84" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="U84" s="66"/>
+      <c r="U84" s="71"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6910,10 +7072,10 @@
       <c r="M88" s="1">
         <v>-347725000</v>
       </c>
-      <c r="T88" s="35" t="s">
+      <c r="T88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="U88" s="36">
+      <c r="U88" s="34">
         <f>U85/(U86+U87)</f>
         <v>1.9274630047382814E-2</v>
       </c>
@@ -6923,51 +7085,51 @@
         <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:M89" si="13">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:M89" si="25">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>7.2523589940171856E-2</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>6.9222402548741693E-2</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>6.1310980465978368E-2</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>6.4781393015409014E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>5.6567551795700215E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>5.5285361834884937E-2</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>8.794320766968948E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>9.3493494822274106E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.10319065608028233</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>8.2492330645527606E-2</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>6.8244880431868563E-2</v>
       </c>
       <c r="T89" s="23" t="s">
@@ -7079,10 +7241,10 @@
       <c r="M91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T91" s="35" t="s">
+      <c r="T91" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="U91" s="36">
+      <c r="U91" s="34">
         <f>U89/U90</f>
         <v>0.20247825119760632</v>
       </c>
@@ -7127,10 +7289,10 @@
       <c r="M92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T92" s="37" t="s">
+      <c r="T92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="U92" s="38">
+      <c r="U92" s="36">
         <f>U88*(1-U91)</f>
         <v>1.5371936662907907E-2</v>
       </c>
@@ -7175,10 +7337,10 @@
       <c r="M93" s="1">
         <v>-456316000</v>
       </c>
-      <c r="T93" s="65" t="s">
+      <c r="T93" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="U93" s="66"/>
+      <c r="U93" s="71"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7223,7 +7385,7 @@
       <c r="T94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="U94" s="39">
+      <c r="U94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -7270,9 +7432,9 @@
       <c r="T95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="U95" s="40" cm="1">
+      <c r="U95" s="38" cm="1">
         <f t="array" ref="U95">_FV(A1,"Beta")</f>
-        <v>0.59519999999999995</v>
+        <v>0.58779999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7318,7 +7480,7 @@
       <c r="T96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="U96" s="39">
+      <c r="U96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7362,12 +7524,12 @@
       <c r="M97" s="1">
         <v>-396522000</v>
       </c>
-      <c r="T97" s="37" t="s">
+      <c r="T97" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="U97" s="38">
+      <c r="U97" s="36">
         <f>(U94)+((U95)*(U96-U94))</f>
-        <v>6.6573359999999998E-2</v>
+        <v>6.6254790000000008E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -7410,10 +7572,10 @@
       <c r="M98" s="1">
         <v>-249522000</v>
       </c>
-      <c r="T98" s="65" t="s">
+      <c r="T98" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="U98" s="66"/>
+      <c r="U98" s="71"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7503,12 +7665,12 @@
       <c r="M100" s="10">
         <v>-553560000</v>
       </c>
-      <c r="T100" s="35" t="s">
+      <c r="T100" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="U100" s="36">
+      <c r="U100" s="34">
         <f>U99/U103</f>
-        <v>5.0538352143004436E-2</v>
+        <v>5.0964690420725378E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7554,9 +7716,9 @@
       <c r="T101" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="U101" s="41" cm="1">
+      <c r="U101" s="39" cm="1">
         <f t="array" ref="U101">_FV(A1,"Market cap",TRUE)</f>
-        <v>52824760000</v>
+        <v>52359340000</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7599,12 +7761,12 @@
       <c r="M102" s="10">
         <v>44755000</v>
       </c>
-      <c r="T102" s="35" t="s">
+      <c r="T102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="U102" s="36">
+      <c r="U102" s="34">
         <f>U101/U103</f>
-        <v>0.94946164785699561</v>
+        <v>0.94903530957927462</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7647,12 +7809,12 @@
       <c r="M103" s="1">
         <v>1344146000</v>
       </c>
-      <c r="T103" s="37" t="s">
+      <c r="T103" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="U103" s="42">
+      <c r="U103" s="40">
         <f>U99+U101</f>
-        <v>55636539000</v>
+        <v>55171119000</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7695,10 +7857,10 @@
       <c r="M104" s="11">
         <v>1388901000</v>
       </c>
-      <c r="T104" s="65" t="s">
+      <c r="T104" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="U104" s="66"/>
+      <c r="U104" s="71"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -7726,41 +7888,51 @@
         <v>0.88802960222016658</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:K105" si="14">(H106/G106)-1</f>
+        <f t="shared" ref="H105:K105" si="26">(H106/G106)-1</f>
         <v>-0.5908576959258991</v>
       </c>
       <c r="I105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>8.9598325650634303E-2</v>
       </c>
       <c r="J105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1.0306758424781455</v>
       </c>
       <c r="K105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-0.78481417397053366</v>
       </c>
       <c r="L105" s="15">
-        <f t="shared" ref="L105" si="15">(L106/K106)-1</f>
+        <f t="shared" ref="L105" si="27">(L106/K106)-1</f>
         <v>3.2222884340053399</v>
       </c>
       <c r="M105" s="15">
-        <f t="shared" ref="M105" si="16">(M106/L106)-1</f>
+        <f t="shared" ref="M105" si="28">(M106/L106)-1</f>
         <v>9.7396729736813681E-2</v>
       </c>
-      <c r="N105" s="15"/>
-      <c r="O105" s="15"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="15"/>
+      <c r="N105" s="64">
+        <v>978900000</v>
+      </c>
+      <c r="O105" s="64">
+        <v>1174000000</v>
+      </c>
+      <c r="P105" s="64">
+        <v>1285000000</v>
+      </c>
+      <c r="Q105" s="64">
+        <v>1478000000</v>
+      </c>
+      <c r="R105" s="64">
+        <v>1383000000</v>
+      </c>
       <c r="S105" s="15"/>
       <c r="T105" s="27" t="s">
         <v>108</v>
       </c>
       <c r="U105" s="28">
         <f>(U100*U92)+(U102*U97)</f>
-        <v>6.3985724437166991E-2</v>
+        <v>6.3661561131951941E-2</v>
       </c>
       <c r="V105" s="15"/>
       <c r="AH105" s="15"/>
@@ -7822,35 +7994,35 @@
       <c r="M106" s="1">
         <v>598721000</v>
       </c>
-      <c r="N106" s="43">
+      <c r="N106" s="41">
         <f>M106*(1+$U$106)</f>
-        <v>660940070.62310052</v>
-      </c>
-      <c r="O106" s="43">
-        <f t="shared" ref="O106:R106" si="17">N106*(1+$U$106)</f>
-        <v>729624945.43413234</v>
-      </c>
-      <c r="P106" s="43">
-        <f t="shared" si="17"/>
-        <v>805447550.63478863</v>
-      </c>
-      <c r="Q106" s="43">
-        <f t="shared" si="17"/>
-        <v>889149638.98002672</v>
-      </c>
-      <c r="R106" s="43">
-        <f t="shared" si="17"/>
-        <v>981550046.15165198</v>
-      </c>
-      <c r="S106" s="44" t="s">
+        <v>648092170.42337608</v>
+      </c>
+      <c r="O106" s="41">
+        <f t="shared" ref="O106:R106" si="29">N106*(1+$U$106)</f>
+        <v>701534540.06804895</v>
+      </c>
+      <c r="P106" s="41">
+        <f t="shared" si="29"/>
+        <v>759383824.35168755</v>
+      </c>
+      <c r="Q106" s="41">
+        <f t="shared" si="29"/>
+        <v>822003422.14234841</v>
+      </c>
+      <c r="R106" s="41">
+        <f t="shared" si="29"/>
+        <v>889786698.56523693</v>
+      </c>
+      <c r="S106" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="T106" s="45" t="s">
+      <c r="T106" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="U106" s="46">
+      <c r="U106" s="44">
         <f>(SUM(N4:R4)/5)</f>
-        <v>0.10391997378261428</v>
+        <v>8.246106353940505E-2</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -7867,139 +8039,139 @@
       <c r="K107" s="13"/>
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
-      <c r="N107" s="44"/>
-      <c r="O107" s="44"/>
-      <c r="P107" s="44"/>
-      <c r="Q107" s="44"/>
-      <c r="R107" s="47">
-        <f>R106*(1+U107)/(U108-U107)</f>
-        <v>25806594896.728142</v>
-      </c>
-      <c r="S107" s="48" t="s">
+      <c r="N107" s="42"/>
+      <c r="O107" s="42"/>
+      <c r="P107" s="42"/>
+      <c r="Q107" s="42"/>
+      <c r="R107" s="65">
+        <f>R105*(1+U107)/(U108-U107)</f>
+        <v>36666263815.933739</v>
+      </c>
+      <c r="S107" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="T107" s="49" t="s">
+      <c r="T107" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="U107" s="50">
+      <c r="U107" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="N108" s="47">
-        <f t="shared" ref="N108:P108" si="18">N107+N106</f>
-        <v>660940070.62310052</v>
-      </c>
-      <c r="O108" s="47">
-        <f t="shared" si="18"/>
-        <v>729624945.43413234</v>
-      </c>
-      <c r="P108" s="47">
-        <f t="shared" si="18"/>
-        <v>805447550.63478863</v>
-      </c>
-      <c r="Q108" s="47">
+      <c r="N108" s="45">
+        <f t="shared" ref="N108:P108" si="30">N107+N106</f>
+        <v>648092170.42337608</v>
+      </c>
+      <c r="O108" s="45">
+        <f t="shared" si="30"/>
+        <v>701534540.06804895</v>
+      </c>
+      <c r="P108" s="45">
+        <f t="shared" si="30"/>
+        <v>759383824.35168755</v>
+      </c>
+      <c r="Q108" s="45">
         <f>Q107+Q106</f>
-        <v>889149638.98002672</v>
-      </c>
-      <c r="R108" s="47">
-        <f>R107+R106</f>
-        <v>26788144942.879795</v>
-      </c>
-      <c r="S108" s="48" t="s">
+        <v>822003422.14234841</v>
+      </c>
+      <c r="R108" s="65">
+        <f>R107+R105</f>
+        <v>38049263815.933739</v>
+      </c>
+      <c r="S108" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="T108" s="51" t="s">
+      <c r="T108" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="U108" s="52">
+      <c r="U108" s="50">
         <f>U105</f>
-        <v>6.3985724437166991E-2</v>
+        <v>6.3661561131951941E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="N109" s="61" t="s">
+      <c r="N109" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="O109" s="62"/>
+      <c r="O109" s="67"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="N110" s="53" t="s">
+      <c r="N110" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="O110" s="41">
+      <c r="O110" s="39">
         <f>NPV(U108,N108,O108,P108,Q108,R108)</f>
-        <v>22273718585.882915</v>
+        <v>30449187898.502785</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="N111" s="53" t="s">
+      <c r="N111" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="O111" s="41">
+      <c r="O111" s="39">
         <f>M40</f>
         <v>1395969000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="N112" s="53" t="s">
+      <c r="N112" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="O112" s="41">
+      <c r="O112" s="39">
         <f>U99</f>
         <v>2811779000</v>
       </c>
     </row>
     <row r="113" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N113" s="53" t="s">
+      <c r="N113" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="O113" s="41">
+      <c r="O113" s="39">
         <f>O110+O111-O112</f>
-        <v>20857908585.882915</v>
+        <v>29033377898.502785</v>
       </c>
     </row>
     <row r="114" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N114" s="53" t="s">
+      <c r="N114" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="O114" s="54">
+      <c r="O114" s="52">
         <f>M34*(1+(S16*5))</f>
         <v>179940705.77714956</v>
       </c>
     </row>
     <row r="115" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N115" s="55" t="s">
+      <c r="N115" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="O115" s="56">
+      <c r="O115" s="54">
         <f>O113/O114</f>
-        <v>115.91545390354713</v>
+        <v>161.34969446246163</v>
       </c>
     </row>
     <row r="116" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N116" s="53" t="s">
+      <c r="N116" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="O116" s="57" cm="1">
+      <c r="O116" s="55" cm="1">
         <f t="array" ref="O116">_FV(A1,"Price")</f>
-        <v>270.8</v>
+        <v>270.3</v>
       </c>
     </row>
     <row r="117" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N117" s="58" t="s">
+      <c r="N117" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="O117" s="59">
+      <c r="O117" s="57">
         <f>O115/O116-1</f>
-        <v>-0.57195179503859994</v>
+        <v>-0.40307179259170689</v>
       </c>
     </row>
     <row r="118" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N118" s="58" t="s">
+      <c r="N118" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="O118" s="60" t="str">
+      <c r="O118" s="58" t="str">
         <f>IF(O115&gt;O116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Consumer/Ferrari.xlsx
+++ b/Consumer/Ferrari.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFA248E-B165-2549-AB31-FF6CB8C71035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9140EA-176E-2D42-B1D2-665989717EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,7 +571,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1033,6 +1033,12 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1050,12 +1056,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2317,11 +2317,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>279.10000000000002</v>
-    <v>161.4</v>
-    <v>0.58779999999999999</v>
-    <v>0.3</v>
-    <v>1.111E-3</v>
+    <v>283.39999999999998</v>
+    <v>167.1</v>
+    <v>0.58540000000000003</v>
+    <v>2.5</v>
+    <v>8.9249999999999989E-3</v>
     <v>EUR</v>
     <v>Ferrari NV, known as Ferrari, is an Italy-based designer, manufacturer and retailer of sports cars that is incorporated in the Netherlands. It operates under the Ferrari brand. Its sports cars portfolio includes, among others, F12berlinetta, FF, Ferrari 488 GTB, 488 Spider, 458 Speciale, Ferrari California T, F12tdf and LaFerrari. The Company also offers financing services through Ferrari Financial Services. It also produces limited series and one-off cars. The Company divides its regional markets in EMEA (Europe, the Middle East, India and Africa), Americas, Greater China and Rest of APAC (Asia-Pacific region, excluding Greater China) and is active in over 60 markets worldwide through a network of authorized dealers.</v>
     <v>4961</v>
@@ -2329,24 +2329,24 @@
     <v>XMIL</v>
     <v>XMIL</v>
     <v>Via Abetone Inferiore No. 4, MARANELLO, MODENA, 41053 IT</v>
-    <v>272.3</v>
+    <v>283.39999999999998</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45076.666666666664</v>
+    <v>45100.666666666664</v>
     <v>0</v>
-    <v>269.39999999999998</v>
-    <v>52359340000</v>
+    <v>279.5</v>
+    <v>54317970000</v>
     <v>Ferrari NV</v>
     <v>Ferrari NV</v>
-    <v>270.5</v>
-    <v>49.745100000000001</v>
-    <v>270</v>
-    <v>270.3</v>
+    <v>280</v>
+    <v>51.548699999999997</v>
+    <v>280.10000000000002</v>
+    <v>282.60000000000002</v>
     <v>193923500</v>
     <v>RACE</v>
     <v>Ferrari NV (XMIL:RACE)</v>
-    <v>193260</v>
-    <v>292150</v>
+    <v>315773</v>
+    <v>315420</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2916,10 +2916,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S26" sqref="S26"/>
+      <selection pane="bottomRight" activeCell="Q96" sqref="Q96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3837,17 +3837,17 @@
         <f>(M35+L35+K35+J35+I35)/5</f>
         <v>-5.2652989868840188E-3</v>
       </c>
-      <c r="T16" s="72">
+      <c r="T16" s="66">
         <f>U101/M3</f>
-        <v>10.276100072734353</v>
-      </c>
-      <c r="U16" s="72">
+        <v>10.660502891514339</v>
+      </c>
+      <c r="U16" s="66">
         <f>U101/M28</f>
-        <v>56.142562732277234</v>
-      </c>
-      <c r="V16" s="73">
+        <v>58.242713491326526</v>
+      </c>
+      <c r="V16" s="67">
         <f>U101/M106</f>
-        <v>87.451985148341208</v>
+        <v>90.723341923867707</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4003,17 +4003,17 @@
         <f>M40-M56-M61</f>
         <v>-1415810000</v>
       </c>
-      <c r="T19" s="72">
+      <c r="T19" s="66">
         <f>U101/N3</f>
-        <v>9.0305864091065882</v>
-      </c>
-      <c r="U19" s="72">
+        <v>9.3683977233528797</v>
+      </c>
+      <c r="U19" s="66">
         <f>U101/N28</f>
-        <v>45.411396357328705</v>
-      </c>
-      <c r="V19" s="73">
+        <v>47.110121422376409</v>
+      </c>
+      <c r="V19" s="67">
         <f>U101/N105</f>
-        <v>53.487935437736233</v>
+        <v>55.488783328225558</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6838,10 +6838,10 @@
       <c r="M83" s="1">
         <v>-153890000</v>
       </c>
-      <c r="T83" s="68" t="s">
+      <c r="T83" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="U83" s="69"/>
+      <c r="U83" s="71"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6883,10 +6883,10 @@
       <c r="M84" s="1">
         <v>103981000</v>
       </c>
-      <c r="T84" s="70" t="s">
+      <c r="T84" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="U84" s="71"/>
+      <c r="U84" s="73"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7337,10 +7337,10 @@
       <c r="M93" s="1">
         <v>-456316000</v>
       </c>
-      <c r="T93" s="70" t="s">
+      <c r="T93" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="U93" s="71"/>
+      <c r="U93" s="73"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7434,7 +7434,7 @@
       </c>
       <c r="U95" s="38" cm="1">
         <f t="array" ref="U95">_FV(A1,"Beta")</f>
-        <v>0.58779999999999999</v>
+        <v>0.58540000000000003</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="U97" s="36">
         <f>(U94)+((U95)*(U96-U94))</f>
-        <v>6.6254790000000008E-2</v>
+        <v>6.6151470000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -7572,10 +7572,10 @@
       <c r="M98" s="1">
         <v>-249522000</v>
       </c>
-      <c r="T98" s="70" t="s">
+      <c r="T98" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="U98" s="71"/>
+      <c r="U98" s="73"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7670,7 +7670,7 @@
       </c>
       <c r="U100" s="34">
         <f>U99/U103</f>
-        <v>5.0964690420725378E-2</v>
+        <v>4.9217422607615517E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="U101" s="39" cm="1">
         <f t="array" ref="U101">_FV(A1,"Market cap",TRUE)</f>
-        <v>52359340000</v>
+        <v>54317970000</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="U102" s="34">
         <f>U101/U103</f>
-        <v>0.94903530957927462</v>
+        <v>0.95078257739238448</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7814,7 +7814,7 @@
       </c>
       <c r="U103" s="40">
         <f>U99+U101</f>
-        <v>55171119000</v>
+        <v>57129749000</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7857,10 +7857,10 @@
       <c r="M104" s="11">
         <v>1388901000</v>
       </c>
-      <c r="T104" s="70" t="s">
+      <c r="T104" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="U104" s="71"/>
+      <c r="U104" s="73"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -7932,7 +7932,7 @@
       </c>
       <c r="U105" s="28">
         <f>(U100*U92)+(U102*U97)</f>
-        <v>6.3661561131951941E-2</v>
+        <v>6.3652232247930846E-2</v>
       </c>
       <c r="V105" s="15"/>
       <c r="AH105" s="15"/>
@@ -8045,7 +8045,7 @@
       <c r="Q107" s="42"/>
       <c r="R107" s="65">
         <f>R105*(1+U107)/(U108-U107)</f>
-        <v>36666263815.933739</v>
+        <v>36675113377.853783</v>
       </c>
       <c r="S107" s="46" t="s">
         <v>148</v>
@@ -8076,7 +8076,7 @@
       </c>
       <c r="R108" s="65">
         <f>R107+R105</f>
-        <v>38049263815.933739</v>
+        <v>38058113377.853783</v>
       </c>
       <c r="S108" s="46" t="s">
         <v>144</v>
@@ -8086,14 +8086,14 @@
       </c>
       <c r="U108" s="50">
         <f>U105</f>
-        <v>6.3661561131951941E-2</v>
+        <v>6.3652232247930846E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="N109" s="66" t="s">
+      <c r="N109" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="O109" s="67"/>
+      <c r="O109" s="69"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="N110" s="51" t="s">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="O110" s="39">
         <f>NPV(U108,N108,O108,P108,Q108,R108)</f>
-        <v>30449187898.502785</v>
+        <v>30456968970.188652</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8128,7 +8128,7 @@
       </c>
       <c r="O113" s="39">
         <f>O110+O111-O112</f>
-        <v>29033377898.502785</v>
+        <v>29041158970.188652</v>
       </c>
     </row>
     <row r="114" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -8146,7 +8146,7 @@
       </c>
       <c r="O115" s="54">
         <f>O113/O114</f>
-        <v>161.34969446246163</v>
+        <v>161.39293688308157</v>
       </c>
     </row>
     <row r="116" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -8155,7 +8155,7 @@
       </c>
       <c r="O116" s="55" cm="1">
         <f t="array" ref="O116">_FV(A1,"Price")</f>
-        <v>270.3</v>
+        <v>282.60000000000002</v>
       </c>
     </row>
     <row r="117" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -8164,7 +8164,7 @@
       </c>
       <c r="O117" s="57">
         <f>O115/O116-1</f>
-        <v>-0.40307179259170689</v>
+        <v>-0.42889972794380193</v>
       </c>
     </row>
     <row r="118" spans="14:15" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Ferrari.xlsx
+++ b/Consumer/Ferrari.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9140EA-176E-2D42-B1D2-665989717EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4125FB5-4D26-2942-ADEE-09D2CC94F2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -559,19 +556,38 @@
   </si>
   <si>
     <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -691,7 +707,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -733,8 +749,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -864,41 +886,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -912,7 +899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -954,10 +941,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -974,61 +957,14 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1039,24 +975,69 @@
     <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1107,7 +1088,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>RACE</a:t>
+              <a:t>Ferrari</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1147,9 +1128,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.2283828382838278E-2"/>
-          <c:y val="0.1120660273535142"/>
+          <c:y val="0.14952868528791749"/>
           <c:w val="0.85831023102310233"/>
-          <c:h val="0.75139463397973516"/>
+          <c:h val="0.68328042870049288"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1357,11 +1338,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106:$B$106</c:f>
+              <c:f>'Sheet 1'!$A$107:$B$107</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>- -</c:v>
@@ -1404,7 +1385,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$106:$M$106</c:f>
+              <c:f>'Sheet 1'!$C$107:$M$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2161,15 +2142,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17463</xdr:rowOff>
+      <xdr:rowOff>49213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2195,6 +2176,50 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
+      <sheetName val="Compounders"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2317,11 +2342,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>283.39999999999998</v>
-    <v>167.1</v>
-    <v>0.58540000000000003</v>
-    <v>2.5</v>
-    <v>8.9249999999999989E-3</v>
+    <v>300</v>
+    <v>179.1</v>
+    <v>0.61150000000000004</v>
+    <v>0.7</v>
+    <v>2.4350000000000001E-3</v>
     <v>EUR</v>
     <v>Ferrari NV, known as Ferrari, is an Italy-based designer, manufacturer and retailer of sports cars that is incorporated in the Netherlands. It operates under the Ferrari brand. Its sports cars portfolio includes, among others, F12berlinetta, FF, Ferrari 488 GTB, 488 Spider, 458 Speciale, Ferrari California T, F12tdf and LaFerrari. The Company also offers financing services through Ferrari Financial Services. It also produces limited series and one-off cars. The Company divides its regional markets in EMEA (Europe, the Middle East, India and Africa), Americas, Greater China and Rest of APAC (Asia-Pacific region, excluding Greater China) and is active in over 60 markets worldwide through a network of authorized dealers.</v>
     <v>4961</v>
@@ -2329,24 +2354,24 @@
     <v>XMIL</v>
     <v>XMIL</v>
     <v>Via Abetone Inferiore No. 4, MARANELLO, MODENA, 41053 IT</v>
-    <v>283.39999999999998</v>
+    <v>289.39999999999998</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45100.666666666664</v>
+    <v>45114.666666666664</v>
     <v>0</v>
-    <v>279.5</v>
-    <v>54317970000</v>
+    <v>285.39999999999998</v>
+    <v>55888750000</v>
     <v>Ferrari NV</v>
     <v>Ferrari NV</v>
-    <v>280</v>
-    <v>51.548699999999997</v>
-    <v>280.10000000000002</v>
-    <v>282.60000000000002</v>
+    <v>287.89999999999998</v>
+    <v>53.039400000000001</v>
+    <v>287.5</v>
+    <v>288.2</v>
     <v>193923500</v>
     <v>RACE</v>
     <v>Ferrari NV (XMIL:RACE)</v>
-    <v>315773</v>
-    <v>315420</v>
+    <v>220078</v>
+    <v>301350</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2916,10 +2941,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q96" sqref="Q96"/>
+      <selection pane="bottomRight" activeCell="Q97" sqref="Q95:Q97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2969,19 +2994,19 @@
       <c r="M1" s="8">
         <v>2022</v>
       </c>
-      <c r="N1" s="29">
+      <c r="N1" s="27">
         <v>2023</v>
       </c>
-      <c r="O1" s="29">
+      <c r="O1" s="27">
         <v>2024</v>
       </c>
-      <c r="P1" s="29">
+      <c r="P1" s="27">
         <v>2025</v>
       </c>
-      <c r="Q1" s="29">
+      <c r="Q1" s="27">
         <v>2026</v>
       </c>
-      <c r="R1" s="29">
+      <c r="R1" s="27">
         <v>2027</v>
       </c>
     </row>
@@ -2990,46 +3015,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
@@ -3044,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1">
         <v>2225207000</v>
@@ -3079,37 +3104,37 @@
       <c r="M3" s="1">
         <v>5095254000</v>
       </c>
-      <c r="N3" s="30">
-        <v>5798000000</v>
-      </c>
-      <c r="O3" s="30">
-        <v>6283000000</v>
-      </c>
-      <c r="P3" s="30">
-        <v>6815000000</v>
-      </c>
-      <c r="Q3" s="30">
-        <v>7095000000</v>
-      </c>
-      <c r="R3" s="30">
-        <v>7556000000</v>
+      <c r="N3" s="28">
+        <v>6381000000</v>
+      </c>
+      <c r="O3" s="28">
+        <v>6938000000</v>
+      </c>
+      <c r="P3" s="28">
+        <v>7493000000</v>
+      </c>
+      <c r="Q3" s="28">
+        <v>7785000000</v>
+      </c>
+      <c r="R3" s="28">
+        <v>8285000000</v>
       </c>
       <c r="S3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="T3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="U3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="V3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="V3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15" t="e">
@@ -3158,23 +3183,23 @@
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>0.13792168162764806</v>
+        <v>0.25234188521318068</v>
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>8.3649534322180141E-2</v>
+        <v>8.7290393355273554E-2</v>
       </c>
       <c r="P4" s="16">
         <f t="shared" si="0"/>
-        <v>8.4672926945726479E-2</v>
+        <v>7.999423464975508E-2</v>
       </c>
       <c r="Q4" s="16">
         <f t="shared" si="0"/>
-        <v>4.1085840058693979E-2</v>
+        <v>3.8969705058054194E-2</v>
       </c>
       <c r="R4" s="16">
         <f t="shared" si="0"/>
-        <v>6.4975334742776614E-2</v>
+        <v>6.4226075786769421E-2</v>
       </c>
       <c r="S4" s="17">
         <f>(M4+L4+K4)/3</f>
@@ -3189,7 +3214,7 @@
         <v>0.12097571088747731</v>
       </c>
       <c r="V4" s="17">
-        <f>(M105+L105+K105)/3</f>
+        <f>(M106+L106+K106)/3</f>
         <v>0.84495699659054002</v>
       </c>
       <c r="AH4" s="16"/>
@@ -3207,7 +3232,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1">
         <v>1198901000</v>
@@ -3248,7 +3273,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="10">
         <v>1026306000</v>
@@ -3285,16 +3310,16 @@
       </c>
       <c r="N6" s="16"/>
       <c r="S6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="T6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="T6" s="19" t="s">
+      <c r="U6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="V6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="V6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -3302,7 +3327,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2">
         <v>0.4612</v>
@@ -3351,7 +3376,7 @@
         <v>0.183</v>
       </c>
       <c r="V7" s="20">
-        <f>M106/M3</f>
+        <f>M107/M3</f>
         <v>0.11750562386094981</v>
       </c>
     </row>
@@ -3360,7 +3385,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1">
         <v>431456000</v>
@@ -3398,7 +3423,7 @@
     </row>
     <row r="9" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -3453,16 +3478,16 @@
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
       <c r="S9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="T9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="T9" s="19" t="s">
+      <c r="U9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="U9" s="19" t="s">
+      <c r="V9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="V9" s="19" t="s">
-        <v>99</v>
       </c>
       <c r="AH9" s="15"/>
       <c r="AI9" s="15"/>
@@ -3475,34 +3500,34 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1">
         <v>179558000</v>
@@ -3532,34 +3557,34 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1">
         <v>168466000</v>
@@ -3573,34 +3598,34 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L12" s="1">
         <v>348024000</v>
@@ -3609,21 +3634,21 @@
         <v>427974000</v>
       </c>
       <c r="S12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="T12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="T12" s="19" t="s">
+      <c r="U12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="U12" s="19" t="s">
+      <c r="V12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="V12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
@@ -3704,7 +3729,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1">
         <v>242819000</v>
@@ -3734,10 +3759,10 @@
         <v>336126000</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -3745,7 +3770,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1">
         <v>674275000</v>
@@ -3781,16 +3806,16 @@
         <v>1203546000</v>
       </c>
       <c r="S15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="T15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="T15" s="19" t="s">
+      <c r="U15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="U15" s="19" t="s">
+      <c r="V15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="V15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -3798,7 +3823,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="1">
         <v>1873176000</v>
@@ -3833,21 +3858,21 @@
       <c r="M16" s="1">
         <v>3852499000</v>
       </c>
-      <c r="S16" s="31">
+      <c r="S16" s="29">
         <f>(M35+L35+K35+J35+I35)/5</f>
         <v>-5.2652989868840188E-3</v>
       </c>
-      <c r="T16" s="66">
+      <c r="T16" s="41">
         <f>U101/M3</f>
-        <v>10.660502891514339</v>
-      </c>
-      <c r="U16" s="66">
+        <v>10.968785854444155</v>
+      </c>
+      <c r="U16" s="41">
         <f>U101/M28</f>
-        <v>58.242713491326526</v>
-      </c>
-      <c r="V16" s="67">
-        <f>U101/M106</f>
-        <v>90.723341923867707</v>
+        <v>59.92699015884385</v>
+      </c>
+      <c r="V16" s="42">
+        <f>U101/M107</f>
+        <v>93.346901144272536</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -3855,10 +3880,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1">
         <v>-423000</v>
@@ -3867,19 +3892,19 @@
         <v>-1658000</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1">
         <v>50219000</v>
@@ -3896,7 +3921,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1">
         <v>237540000</v>
@@ -3932,16 +3957,16 @@
         <v>546225000</v>
       </c>
       <c r="S18" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="U18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="V18" s="19" t="s">
         <v>160</v>
-      </c>
-      <c r="U18" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="V18" s="19" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -3949,7 +3974,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="10">
         <v>564052000</v>
@@ -3984,41 +4009,41 @@
       <c r="M19" s="10">
         <v>1771507000</v>
       </c>
-      <c r="N19" s="59">
-        <v>2211000000</v>
-      </c>
-      <c r="O19" s="59">
-        <v>2457000000</v>
-      </c>
-      <c r="P19" s="59">
-        <v>2643000000</v>
-      </c>
-      <c r="Q19" s="59">
-        <v>2792000000</v>
-      </c>
-      <c r="R19" s="59">
-        <v>2870000000</v>
-      </c>
-      <c r="S19" s="32">
+      <c r="N19" s="34">
+        <v>2436000000</v>
+      </c>
+      <c r="O19" s="34">
+        <v>2702000000</v>
+      </c>
+      <c r="P19" s="34">
+        <v>2915000000</v>
+      </c>
+      <c r="Q19" s="34">
+        <v>3072000000</v>
+      </c>
+      <c r="R19" s="34">
+        <v>3147000000</v>
+      </c>
+      <c r="S19" s="30">
         <f>M40-M56-M61</f>
         <v>-1415810000</v>
       </c>
-      <c r="T19" s="66">
+      <c r="T19" s="41">
         <f>U101/N3</f>
-        <v>9.3683977233528797</v>
-      </c>
-      <c r="U19" s="66">
+        <v>8.7586193386616511</v>
+      </c>
+      <c r="U19" s="41">
         <f>U101/N28</f>
-        <v>47.110121422376409</v>
-      </c>
-      <c r="V19" s="67">
+        <v>43.697224394057855</v>
+      </c>
+      <c r="V19" s="42">
         <f>U101/N105</f>
-        <v>55.488783328225558</v>
+        <v>48.491844626666357</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15" t="e">
@@ -4067,23 +4092,23 @@
       </c>
       <c r="N20" s="16">
         <f t="shared" ref="N20" si="6">(N19/M19)-1</f>
-        <v>0.24808990311638612</v>
+        <v>0.37510040886093021</v>
       </c>
       <c r="O20" s="16">
         <f t="shared" ref="O20" si="7">(O19/N19)-1</f>
-        <v>0.11126187245590224</v>
+        <v>0.10919540229885061</v>
       </c>
       <c r="P20" s="16">
         <f t="shared" ref="P20" si="8">(P19/O19)-1</f>
-        <v>7.5702075702075655E-2</v>
+        <v>7.8830495928941424E-2</v>
       </c>
       <c r="Q20" s="16">
         <f t="shared" ref="Q20" si="9">(Q19/P19)-1</f>
-        <v>5.6375331063185818E-2</v>
+        <v>5.3859348198970869E-2</v>
       </c>
       <c r="R20" s="16">
         <f t="shared" ref="R20" si="10">(R19/Q19)-1</f>
-        <v>2.7936962750716443E-2</v>
+        <v>2.44140625E-2</v>
       </c>
       <c r="S20" s="15"/>
       <c r="T20" s="15"/>
@@ -4097,12 +4122,12 @@
       <c r="AT20" s="15"/>
       <c r="AU20" s="15"/>
     </row>
-    <row r="21" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2">
         <v>0.2535</v>
@@ -4137,25 +4162,31 @@
       <c r="M21" s="2">
         <v>0.34770000000000001</v>
       </c>
-      <c r="N21" s="61">
+      <c r="N21" s="36">
         <f>N19/N3</f>
-        <v>0.38133839254915486</v>
-      </c>
-      <c r="O21" s="61">
+        <v>0.38175834508697698</v>
+      </c>
+      <c r="O21" s="36">
         <f t="shared" ref="O21:R21" si="11">O19/O3</f>
-        <v>0.39105522839407925</v>
-      </c>
-      <c r="P21" s="61">
+        <v>0.38944940905159986</v>
+      </c>
+      <c r="P21" s="36">
         <f t="shared" si="11"/>
-        <v>0.38782098312545854</v>
-      </c>
-      <c r="Q21" s="61">
+        <v>0.38902976111036969</v>
+      </c>
+      <c r="Q21" s="36">
         <f t="shared" si="11"/>
-        <v>0.39351656095842141</v>
-      </c>
-      <c r="R21" s="61">
+        <v>0.39460500963391137</v>
+      </c>
+      <c r="R21" s="36">
         <f t="shared" si="11"/>
-        <v>0.3798305982001059</v>
+        <v>0.37984308992154497</v>
+      </c>
+      <c r="U21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="V21" s="19" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4163,7 +4194,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="10">
         <v>352031000</v>
@@ -4197,6 +4228,14 @@
       </c>
       <c r="M22" s="10">
         <v>1242755000</v>
+      </c>
+      <c r="U22" s="69">
+        <f>(-1*M98)/U101</f>
+        <v>4.464619444879336E-3</v>
+      </c>
+      <c r="V22" s="70">
+        <f>M107/U101</f>
+        <v>1.0712728411352911E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4204,7 +4243,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2">
         <v>0.15820000000000001</v>
@@ -4245,7 +4284,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1">
         <v>-17432000</v>
@@ -4286,7 +4325,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="10">
         <v>334599000</v>
@@ -4327,7 +4366,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2">
         <v>0.15040000000000001</v>
@@ -4368,7 +4407,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1">
         <v>101109000</v>
@@ -4409,7 +4448,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="11">
         <v>225403000</v>
@@ -4444,25 +4483,25 @@
       <c r="M28" s="11">
         <v>932614000</v>
       </c>
-      <c r="N28" s="62">
-        <v>1153000000</v>
-      </c>
-      <c r="O28" s="62">
-        <v>1291000000</v>
-      </c>
-      <c r="P28" s="62">
-        <v>1434000000</v>
-      </c>
-      <c r="Q28" s="62">
-        <v>1556000000</v>
-      </c>
-      <c r="R28" s="62">
-        <v>1523000000</v>
+      <c r="N28" s="37">
+        <v>1279000000</v>
+      </c>
+      <c r="O28" s="37">
+        <v>1444000000</v>
+      </c>
+      <c r="P28" s="37">
+        <v>1587000000</v>
+      </c>
+      <c r="Q28" s="37">
+        <v>1709000000</v>
+      </c>
+      <c r="R28" s="37">
+        <v>1670000000</v>
       </c>
     </row>
     <row r="29" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15" t="e">
@@ -4511,23 +4550,23 @@
       </c>
       <c r="N29" s="16">
         <f t="shared" ref="N29" si="15">(N28/M28)-1</f>
-        <v>0.23630998462386366</v>
+        <v>0.3714141113043552</v>
       </c>
       <c r="O29" s="16">
         <f t="shared" ref="O29" si="16">(O28/N28)-1</f>
-        <v>0.11968777103209027</v>
+        <v>0.12900703674745895</v>
       </c>
       <c r="P29" s="16">
         <f t="shared" ref="P29" si="17">(P28/O28)-1</f>
-        <v>0.11076684740511222</v>
+        <v>9.9030470914127422E-2</v>
       </c>
       <c r="Q29" s="16">
         <f t="shared" ref="Q29" si="18">(Q28/P28)-1</f>
-        <v>8.5076708507670906E-2</v>
+        <v>7.6874606175173277E-2</v>
       </c>
       <c r="R29" s="16">
         <f t="shared" ref="R29" si="19">(R28/Q28)-1</f>
-        <v>-2.1208226221079651E-2</v>
+        <v>-2.2820362785254567E-2</v>
       </c>
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
@@ -4546,7 +4585,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2">
         <v>0.1013</v>
@@ -4581,25 +4620,25 @@
       <c r="M30" s="2">
         <v>0.183</v>
       </c>
-      <c r="N30" s="60">
+      <c r="N30" s="35">
         <f>N28/N3</f>
-        <v>0.19886167644015176</v>
-      </c>
-      <c r="O30" s="60">
+        <v>0.20043880269550227</v>
+      </c>
+      <c r="O30" s="35">
         <f t="shared" ref="O30:R30" si="20">O28/O3</f>
-        <v>0.20547509151679133</v>
-      </c>
-      <c r="P30" s="60">
+        <v>0.20812914384548861</v>
+      </c>
+      <c r="P30" s="35">
         <f t="shared" si="20"/>
-        <v>0.21041819515774027</v>
-      </c>
-      <c r="Q30" s="60">
+        <v>0.2117976778326438</v>
+      </c>
+      <c r="Q30" s="35">
         <f t="shared" si="20"/>
-        <v>0.2193093727977449</v>
-      </c>
-      <c r="R30" s="60">
+        <v>0.21952472703917791</v>
+      </c>
+      <c r="R30" s="35">
         <f t="shared" si="20"/>
-        <v>0.20156167284277396</v>
+        <v>0.2015691007845504</v>
       </c>
     </row>
     <row r="31" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4607,7 +4646,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="12">
         <v>1.19</v>
@@ -4642,20 +4681,20 @@
       <c r="M31" s="12">
         <v>5.05</v>
       </c>
-      <c r="N31" s="63">
-        <v>6.35</v>
-      </c>
-      <c r="O31" s="63">
-        <v>7.11</v>
-      </c>
-      <c r="P31" s="63">
-        <v>7.9</v>
-      </c>
-      <c r="Q31" s="63">
-        <v>8.57</v>
-      </c>
-      <c r="R31" s="63">
-        <v>8.39</v>
+      <c r="N31" s="38">
+        <v>7.05</v>
+      </c>
+      <c r="O31" s="38">
+        <v>7.97</v>
+      </c>
+      <c r="P31" s="38">
+        <v>8.75</v>
+      </c>
+      <c r="Q31" s="38">
+        <v>9.43</v>
+      </c>
+      <c r="R31" s="38">
+        <v>9.2100000000000009</v>
       </c>
     </row>
     <row r="32" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4663,7 +4702,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="12">
         <v>1.19</v>
@@ -4704,7 +4743,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1">
         <v>188921600</v>
@@ -4745,7 +4784,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1">
         <v>188921600</v>
@@ -4783,7 +4822,7 @@
     </row>
     <row r="35" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22" t="e">
@@ -4850,40 +4889,40 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -4891,40 +4930,40 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -4932,10 +4971,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1">
         <v>113786000</v>
@@ -4973,16 +5012,16 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1">
         <v>8626000</v>
@@ -5014,10 +5053,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1">
         <v>113786000</v>
@@ -5055,10 +5094,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1">
         <v>1099771000</v>
@@ -5096,10 +5135,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1">
         <v>237496000</v>
@@ -5137,10 +5176,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1">
         <v>767809000</v>
@@ -5178,10 +5217,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10">
         <v>2218862000</v>
@@ -5219,10 +5258,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1">
         <v>567814000</v>
@@ -5260,10 +5299,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1">
         <v>787178000</v>
@@ -5301,10 +5340,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1">
         <v>242167000</v>
@@ -5342,10 +5381,10 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1">
         <v>1029345000</v>
@@ -5383,10 +5422,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1">
         <v>1271000</v>
@@ -5424,10 +5463,10 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1">
         <v>41543000</v>
@@ -5465,10 +5504,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1">
         <v>36640000</v>
@@ -5483,22 +5522,22 @@
         <v>11967000</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5506,10 +5545,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1">
         <v>1676613000</v>
@@ -5547,40 +5586,40 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5588,10 +5627,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11">
         <v>3895475000</v>
@@ -5629,10 +5668,10 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1">
         <v>485948000</v>
@@ -5670,10 +5709,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1">
         <v>296785000</v>
@@ -5685,22 +5724,22 @@
         <v>919409000</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -5711,10 +5750,10 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1">
         <v>103909000</v>
@@ -5752,40 +5791,40 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5793,10 +5832,10 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1">
         <v>31028000</v>
@@ -5834,10 +5873,10 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10">
         <v>917670000</v>
@@ -5875,10 +5914,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1">
         <v>20519000</v>
@@ -5916,10 +5955,10 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1">
         <v>194321000</v>
@@ -5957,10 +5996,10 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1">
         <v>27958000</v>
@@ -5998,10 +6037,10 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1">
         <v>418725000</v>
@@ -6039,10 +6078,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1">
         <v>661523000</v>
@@ -6080,40 +6119,40 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -6121,10 +6160,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10">
         <v>1579193000</v>
@@ -6162,10 +6201,10 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1">
         <v>3778000</v>
@@ -6203,10 +6242,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1">
         <v>2242315000</v>
@@ -6244,10 +6283,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1">
         <v>43413000</v>
@@ -6285,40 +6324,40 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -6326,10 +6365,10 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10">
         <v>2289506000</v>
@@ -6367,10 +6406,10 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11">
         <v>3868699000</v>
@@ -6408,40 +6447,40 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -6449,40 +6488,40 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -6490,7 +6529,7 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1">
         <v>225403000</v>
@@ -6531,7 +6570,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1">
         <v>237540000</v>
@@ -6572,40 +6611,40 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -6651,7 +6690,7 @@
     </row>
     <row r="80" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:M80" si="24">B79/B3</f>
@@ -6721,7 +6760,7 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1">
         <v>-53070000</v>
@@ -6762,7 +6801,7 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1">
         <v>8857000</v>
@@ -6803,7 +6842,7 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1">
         <v>-18940000</v>
@@ -6838,17 +6877,17 @@
       <c r="M83" s="1">
         <v>-153890000</v>
       </c>
-      <c r="T83" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="U83" s="71"/>
+      <c r="T83" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="U83" s="45"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1">
         <v>24770000</v>
@@ -6883,17 +6922,17 @@
       <c r="M84" s="1">
         <v>103981000</v>
       </c>
-      <c r="T84" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="U84" s="73"/>
+      <c r="T84" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="U84" s="46"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1">
         <v>80665000</v>
@@ -6928,10 +6967,10 @@
       <c r="M85" s="1">
         <v>140008000</v>
       </c>
-      <c r="T85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="U85" s="24">
+      <c r="T85" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="U85" s="48">
         <f>M17</f>
         <v>54196000</v>
       </c>
@@ -6941,7 +6980,7 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1">
         <v>52647000</v>
@@ -6976,10 +7015,10 @@
       <c r="M86" s="1">
         <v>-174460000</v>
       </c>
-      <c r="T86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="U86" s="24">
+      <c r="T86" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="U86" s="48">
         <f>M56</f>
         <v>0</v>
       </c>
@@ -6989,7 +7028,7 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10">
         <v>462520000</v>
@@ -7024,10 +7063,10 @@
       <c r="M87" s="10">
         <v>1403340000</v>
       </c>
-      <c r="T87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="U87" s="24">
+      <c r="T87" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="U87" s="48">
         <f>M61</f>
         <v>2811779000</v>
       </c>
@@ -7037,7 +7076,7 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1">
         <v>-161380000</v>
@@ -7072,17 +7111,17 @@
       <c r="M88" s="1">
         <v>-347725000</v>
       </c>
-      <c r="T88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="U88" s="34">
+      <c r="T88" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="U88" s="50">
         <f>U85/(U86+U87)</f>
         <v>1.9274630047382814E-2</v>
       </c>
     </row>
     <row r="89" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15" t="e">
         <f t="shared" ref="B89:M89" si="25">(-1*B88)/B3</f>
@@ -7132,10 +7171,10 @@
         <f t="shared" si="25"/>
         <v>6.8244880431868563E-2</v>
       </c>
-      <c r="T89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="U89" s="24">
+      <c r="T89" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="U89" s="48">
         <f>M27</f>
         <v>238472000</v>
       </c>
@@ -7145,10 +7184,10 @@
       <c r="AJ89" s="15"/>
       <c r="AK89" s="15"/>
       <c r="AL89" s="15"/>
-      <c r="AS89" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT89" s="26">
+      <c r="AS89" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT89" s="24">
         <f>AL27</f>
         <v>0</v>
       </c>
@@ -7158,45 +7197,45 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1">
         <v>18595000</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1">
         <v>-1367000</v>
       </c>
-      <c r="T90" s="23" t="s">
+      <c r="T90" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="U90" s="24">
+      <c r="U90" s="48">
         <f>M25</f>
         <v>1177766000</v>
       </c>
@@ -7206,45 +7245,45 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="U91" s="34">
+        <v>91</v>
+      </c>
+      <c r="T91" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="U91" s="50">
         <f>U89/U90</f>
         <v>0.20247825119760632</v>
       </c>
@@ -7254,45 +7293,45 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1">
         <v>8307000</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="U92" s="36">
+        <v>91</v>
+      </c>
+      <c r="T92" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="U92" s="50">
         <f>U88*(1-U91)</f>
         <v>1.5371936662907907E-2</v>
       </c>
@@ -7302,7 +7341,7 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1">
         <v>-96268000</v>
@@ -7337,17 +7376,17 @@
       <c r="M93" s="1">
         <v>-456316000</v>
       </c>
-      <c r="T93" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="U93" s="73"/>
+      <c r="T93" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="U93" s="46"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10">
         <v>-257648000</v>
@@ -7382,11 +7421,12 @@
       <c r="M94" s="10">
         <v>-805408000</v>
       </c>
-      <c r="T94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="U94" s="37">
-        <v>4.095E-2</v>
+      <c r="T94" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="U94" s="71">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7394,7 +7434,7 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1">
         <v>-293504000</v>
@@ -7429,12 +7469,12 @@
       <c r="M95" s="1">
         <v>-62591000</v>
       </c>
-      <c r="T95" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="U95" s="38" cm="1">
+      <c r="T95" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="U95" s="52" cm="1">
         <f t="array" ref="U95">_FV(A1,"Beta")</f>
-        <v>0.58540000000000003</v>
+        <v>0.61150000000000004</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7442,45 +7482,45 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1">
         <v>1384000</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="U96" s="37">
+        <v>91</v>
+      </c>
+      <c r="T96" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="U96" s="51">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7489,25 +7529,25 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1">
         <v>-100093000</v>
@@ -7524,12 +7564,12 @@
       <c r="M97" s="1">
         <v>-396522000</v>
       </c>
-      <c r="T97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="U97" s="36">
+      <c r="T97" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="U97" s="50">
         <f>(U94)+((U95)*(U96-U94))</f>
-        <v>6.6151470000000004E-2</v>
+        <v>6.709248000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -7537,19 +7577,19 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1">
         <v>-86905000</v>
@@ -7572,17 +7612,17 @@
       <c r="M98" s="1">
         <v>-249522000</v>
       </c>
-      <c r="T98" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="U98" s="73"/>
+      <c r="T98" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="U98" s="46"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1">
         <v>99111000</v>
@@ -7617,10 +7657,10 @@
       <c r="M99" s="1">
         <v>155075000</v>
       </c>
-      <c r="T99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="U99" s="24">
+      <c r="T99" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="U99" s="48">
         <f>U86+U87</f>
         <v>2811779000</v>
       </c>
@@ -7630,7 +7670,7 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10">
         <v>-194393000</v>
@@ -7665,12 +7705,12 @@
       <c r="M100" s="10">
         <v>-553560000</v>
       </c>
-      <c r="T100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="U100" s="34">
+      <c r="T100" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="U100" s="50">
         <f>U99/U103</f>
-        <v>4.9217422607615517E-2</v>
+        <v>4.7900403078139211E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7678,7 +7718,7 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1">
         <v>-4441000</v>
@@ -7713,12 +7753,12 @@
       <c r="M101" s="1">
         <v>383000</v>
       </c>
-      <c r="T101" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="U101" s="39" cm="1">
+      <c r="T101" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="U101" s="53" cm="1">
         <f t="array" ref="U101">_FV(A1,"Market cap",TRUE)</f>
-        <v>54317970000</v>
+        <v>55888750000</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7726,7 +7766,7 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10">
         <v>6038000</v>
@@ -7761,12 +7801,12 @@
       <c r="M102" s="10">
         <v>44755000</v>
       </c>
-      <c r="T102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="U102" s="34">
+      <c r="T102" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="U102" s="50">
         <f>U101/U103</f>
-        <v>0.95078257739238448</v>
+        <v>0.95209959692186075</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7774,7 +7814,7 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1">
         <v>94025000</v>
@@ -7809,12 +7849,12 @@
       <c r="M103" s="1">
         <v>1344146000</v>
       </c>
-      <c r="T103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="U103" s="40">
+      <c r="T103" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="U103" s="54">
         <f>U99+U101</f>
-        <v>57129749000</v>
+        <v>58700529000</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7822,7 +7862,7 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11">
         <v>100063000</v>
@@ -7857,82 +7897,92 @@
       <c r="M104" s="11">
         <v>1388901000</v>
       </c>
-      <c r="T104" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="U104" s="73"/>
+      <c r="T104" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="U104" s="46"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:L105" si="26">(B22*(1-$U$91))+B77+B88+B81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="26"/>
+        <v>303842378.75265545</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="26"/>
+        <v>298357628.66987157</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="26"/>
+        <v>211919567.67133713</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="26"/>
+        <v>516222515.92591405</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="26"/>
+        <v>959601716.00640535</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="26"/>
+        <v>515825145.71655154</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="26"/>
+        <v>519736994.56428528</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="26"/>
+        <v>792435697.80075169</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="26"/>
+        <v>430358988.14705133</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="26"/>
+        <v>800777379.04133749</v>
+      </c>
+      <c r="M105" s="1">
+        <f>(M22*(1-$U$91))+M77+M88+M81</f>
+        <v>1043433140.9329188</v>
+      </c>
+      <c r="N105" s="31">
+        <f>M105*(1+$U$106)</f>
+        <v>1152539162.6217077</v>
+      </c>
+      <c r="O105" s="31">
+        <f t="shared" ref="O105:R105" si="27">N105*(1+$U$106)</f>
+        <v>1273053796.4215815</v>
+      </c>
+      <c r="P105" s="31">
+        <f t="shared" si="27"/>
+        <v>1406169977.6837385</v>
+      </c>
+      <c r="Q105" s="31">
+        <f t="shared" si="27"/>
+        <v>1553205380.3987737</v>
+      </c>
+      <c r="R105" s="31">
+        <f t="shared" si="27"/>
+        <v>1715615460.4250004</v>
+      </c>
+      <c r="S105" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="T105" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>-0.10313565299165395</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>-0.47535101659649071</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>2.6570069429264382</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>0.88802960222016658</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:K105" si="26">(H106/G106)-1</f>
-        <v>-0.5908576959258991</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="26"/>
-        <v>8.9598325650634303E-2</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="26"/>
-        <v>1.0306758424781455</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="26"/>
-        <v>-0.78481417397053366</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" ref="L105" si="27">(L106/K106)-1</f>
-        <v>3.2222884340053399</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" ref="M105" si="28">(M106/L106)-1</f>
-        <v>9.7396729736813681E-2</v>
-      </c>
-      <c r="N105" s="64">
-        <v>978900000</v>
-      </c>
-      <c r="O105" s="64">
-        <v>1174000000</v>
-      </c>
-      <c r="P105" s="64">
-        <v>1285000000</v>
-      </c>
-      <c r="Q105" s="64">
-        <v>1478000000</v>
-      </c>
-      <c r="R105" s="64">
-        <v>1383000000</v>
-      </c>
-      <c r="S105" s="15"/>
-      <c r="T105" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="U105" s="28">
+      <c r="U105" s="56">
         <f>(U100*U92)+(U102*U97)</f>
-        <v>6.3652232247930846E-2</v>
+        <v>6.461504512673294E-2</v>
       </c>
       <c r="V105" s="15"/>
       <c r="AH105" s="15"/>
@@ -7946,232 +7996,262 @@
       <c r="AP105" s="15"/>
       <c r="AQ105" s="15"/>
       <c r="AR105" s="15"/>
-      <c r="AS105" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT105" s="28">
+      <c r="AS105" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f>(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>-0.10313565299165395</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>-0.47535101659649071</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>2.6570069429264382</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>0.88802960222016658</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>-0.5908576959258991</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>8.9598325650634303E-2</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>1.0306758424781455</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>-0.78481417397053366</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>3.2222884340053399</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>9.7396729736813681E-2</v>
+      </c>
+      <c r="N106" s="39">
+        <v>1075000000</v>
+      </c>
+      <c r="O106" s="39">
+        <v>1260000000</v>
+      </c>
+      <c r="P106" s="39">
+        <v>1414000000</v>
+      </c>
+      <c r="Q106" s="39">
+        <v>1602000000</v>
+      </c>
+      <c r="R106" s="39">
+        <v>1800000000</v>
+      </c>
+      <c r="S106" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="T106" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="U106" s="58">
+        <f>(SUM(N4:R4)/5)</f>
+        <v>0.10456445881260659</v>
+      </c>
+    </row>
+    <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1">
         <v>204168000</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D107" s="1">
         <v>183111000</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E107" s="1">
         <v>96069000</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F107" s="1">
         <v>351325000</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G107" s="1">
         <v>663312000</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H107" s="1">
         <v>271389000</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I107" s="1">
         <v>295705000</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J107" s="1">
         <v>600481000</v>
       </c>
-      <c r="K106" s="1">
+      <c r="K107" s="1">
         <v>129215000</v>
       </c>
-      <c r="L106" s="1">
+      <c r="L107" s="1">
         <v>545583000</v>
       </c>
-      <c r="M106" s="1">
+      <c r="M107" s="1">
         <v>598721000</v>
       </c>
-      <c r="N106" s="41">
-        <f>M106*(1+$U$106)</f>
-        <v>648092170.42337608</v>
-      </c>
-      <c r="O106" s="41">
-        <f t="shared" ref="O106:R106" si="29">N106*(1+$U$106)</f>
-        <v>701534540.06804895</v>
-      </c>
-      <c r="P106" s="41">
-        <f t="shared" si="29"/>
-        <v>759383824.35168755</v>
-      </c>
-      <c r="Q106" s="41">
-        <f t="shared" si="29"/>
-        <v>822003422.14234841</v>
-      </c>
-      <c r="R106" s="41">
-        <f t="shared" si="29"/>
-        <v>889786698.56523693</v>
-      </c>
-      <c r="S106" s="42" t="s">
+      <c r="N107" s="32"/>
+      <c r="O107" s="32"/>
+      <c r="P107" s="32"/>
+      <c r="Q107" s="32"/>
+      <c r="R107" s="40">
+        <f>R106*(1+U107)/(U108-U107)</f>
+        <v>46573214648.566963</v>
+      </c>
+      <c r="S107" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="T106" s="43" t="s">
+      <c r="T107" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="U106" s="44">
-        <f>(SUM(N4:R4)/5)</f>
-        <v>8.246106353940505E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="42"/>
-      <c r="O107" s="42"/>
-      <c r="P107" s="42"/>
-      <c r="Q107" s="42"/>
-      <c r="R107" s="65">
-        <f>R105*(1+U107)/(U108-U107)</f>
-        <v>36675113377.853783</v>
-      </c>
-      <c r="S107" s="46" t="s">
+      <c r="U107" s="60">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="N108" s="40">
+        <f t="shared" ref="N108:Q108" si="28">N107+N106</f>
+        <v>1075000000</v>
+      </c>
+      <c r="O108" s="40">
+        <f t="shared" si="28"/>
+        <v>1260000000</v>
+      </c>
+      <c r="P108" s="40">
+        <f t="shared" si="28"/>
+        <v>1414000000</v>
+      </c>
+      <c r="Q108" s="40">
+        <f t="shared" si="28"/>
+        <v>1602000000</v>
+      </c>
+      <c r="R108" s="40">
+        <f>R107+R106</f>
+        <v>48373214648.566963</v>
+      </c>
+      <c r="S108" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="T108" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="T107" s="47" t="s">
+      <c r="U108" s="58">
+        <f>U105</f>
+        <v>6.461504512673294E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="N109" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="U107" s="48">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="N108" s="45">
-        <f t="shared" ref="N108:P108" si="30">N107+N106</f>
-        <v>648092170.42337608</v>
-      </c>
-      <c r="O108" s="45">
-        <f t="shared" si="30"/>
-        <v>701534540.06804895</v>
-      </c>
-      <c r="P108" s="45">
-        <f t="shared" si="30"/>
-        <v>759383824.35168755</v>
-      </c>
-      <c r="Q108" s="45">
-        <f>Q107+Q106</f>
-        <v>822003422.14234841</v>
-      </c>
-      <c r="R108" s="65">
-        <f>R107+R105</f>
-        <v>38058113377.853783</v>
-      </c>
-      <c r="S108" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="T108" s="49" t="s">
+      <c r="O109" s="62"/>
+    </row>
+    <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="N110" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="U108" s="50">
-        <f>U105</f>
-        <v>6.3652232247930846E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="N109" s="68" t="s">
+      <c r="O110" s="53">
+        <f>NPV(U108,N108,O108,P108,Q108,R108)</f>
+        <v>39910932831.263214</v>
+      </c>
+    </row>
+    <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="N111" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="O109" s="69"/>
-    </row>
-    <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="N110" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="O110" s="39">
-        <f>NPV(U108,N108,O108,P108,Q108,R108)</f>
-        <v>30456968970.188652</v>
-      </c>
-    </row>
-    <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="N111" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="O111" s="39">
+      <c r="O111" s="53">
         <f>M40</f>
         <v>1395969000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="N112" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="O112" s="39">
+      <c r="N112" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="O112" s="53">
         <f>U99</f>
         <v>2811779000</v>
       </c>
     </row>
     <row r="113" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N113" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="O113" s="39">
+      <c r="N113" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="O113" s="53">
         <f>O110+O111-O112</f>
-        <v>29041158970.188652</v>
+        <v>38495122831.263214</v>
       </c>
     </row>
     <row r="114" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N114" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="O114" s="52">
+      <c r="N114" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="O114" s="63">
         <f>M34*(1+(S16*5))</f>
         <v>179940705.77714956</v>
       </c>
     </row>
     <row r="115" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N115" s="53" t="s">
+      <c r="N115" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="O115" s="65">
+        <f>O113/O114</f>
+        <v>213.93226543713857</v>
+      </c>
+    </row>
+    <row r="116" spans="14:15" ht="20" x14ac:dyDescent="0.25">
+      <c r="N116" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="O116" s="66" cm="1">
+        <f t="array" ref="O116">_FV(A1,"Price")</f>
+        <v>288.2</v>
+      </c>
+    </row>
+    <row r="117" spans="14:15" ht="20" x14ac:dyDescent="0.25">
+      <c r="N117" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="O115" s="54">
-        <f>O113/O114</f>
-        <v>161.39293688308157</v>
-      </c>
-    </row>
-    <row r="116" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N116" s="51" t="s">
+      <c r="O117" s="67">
+        <f>O115/O116-1</f>
+        <v>-0.25769512339646572</v>
+      </c>
+    </row>
+    <row r="118" spans="14:15" ht="20" x14ac:dyDescent="0.25">
+      <c r="N118" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="O116" s="55" cm="1">
-        <f t="array" ref="O116">_FV(A1,"Price")</f>
-        <v>282.60000000000002</v>
-      </c>
-    </row>
-    <row r="117" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N117" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="O117" s="57">
-        <f>O115/O116-1</f>
-        <v>-0.42889972794380193</v>
-      </c>
-    </row>
-    <row r="118" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N118" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="O118" s="58" t="str">
+      <c r="O118" s="68" t="str">
         <f>IF(O115&gt;O116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -8211,8 +8291,9 @@
     <hyperlink ref="M36" r:id="rId23" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="M74" r:id="rId24" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="N1" r:id="rId25" display="https://finbox.com/NYSE:RACE/explorer/revenue_proj" xr:uid="{859F222D-E633-5343-8176-20633AEE1B3C}"/>
+    <hyperlink ref="S106" r:id="rId26" xr:uid="{96CB70EC-22C4-0A42-A688-94F3B529EE13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId26"/>
+  <drawing r:id="rId27"/>
 </worksheet>
 </file>
--- a/Consumer/Ferrari.xlsx
+++ b/Consumer/Ferrari.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4125FB5-4D26-2942-ADEE-09D2CC94F2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0B7F33-1C3D-AA4F-9332-1EE101D1E900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -574,6 +574,9 @@
   </si>
   <si>
     <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
   </si>
 </sst>
 </file>
@@ -587,7 +590,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -899,7 +902,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -978,66 +981,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2195,14 +2200,20 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Top 12"/>
+      <sheetName val="Still Researching"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Compounders"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>4.0119999999999996E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2217,6 +2228,12 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2343,35 +2360,35 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>300</v>
-    <v>179.1</v>
-    <v>0.61150000000000004</v>
-    <v>0.7</v>
-    <v>2.4350000000000001E-3</v>
+    <v>183</v>
+    <v>0.60929999999999995</v>
+    <v>-2.4</v>
+    <v>-8.319E-3</v>
     <v>EUR</v>
     <v>Ferrari NV, known as Ferrari, is an Italy-based designer, manufacturer and retailer of sports cars that is incorporated in the Netherlands. It operates under the Ferrari brand. Its sports cars portfolio includes, among others, F12berlinetta, FF, Ferrari 488 GTB, 488 Spider, 458 Speciale, Ferrari California T, F12tdf and LaFerrari. The Company also offers financing services through Ferrari Financial Services. It also produces limited series and one-off cars. The Company divides its regional markets in EMEA (Europe, the Middle East, India and Africa), Americas, Greater China and Rest of APAC (Asia-Pacific region, excluding Greater China) and is active in over 60 markets worldwide through a network of authorized dealers.</v>
-    <v>4961</v>
+    <v>4953</v>
     <v>Borsa Italiana</v>
     <v>XMIL</v>
     <v>XMIL</v>
     <v>Via Abetone Inferiore No. 4, MARANELLO, MODENA, 41053 IT</v>
-    <v>289.39999999999998</v>
+    <v>288.10000000000002</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45114.666666666664</v>
+    <v>45149.33871527778</v>
     <v>0</v>
-    <v>285.39999999999998</v>
-    <v>55888750000</v>
+    <v>286.10000000000002</v>
+    <v>54822170000</v>
     <v>Ferrari NV</v>
     <v>Ferrari NV</v>
-    <v>287.89999999999998</v>
-    <v>53.039400000000001</v>
-    <v>287.5</v>
-    <v>288.2</v>
+    <v>287.39999999999998</v>
+    <v>48.799100000000003</v>
+    <v>288.5</v>
+    <v>286.10000000000002</v>
     <v>193923500</v>
     <v>RACE</v>
     <v>Ferrari NV (XMIL:RACE)</v>
-    <v>220078</v>
-    <v>301350</v>
+    <v>19613</v>
+    <v>309840</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2941,10 +2958,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q97" sqref="Q95:Q97"/>
+      <selection pane="bottomRight" activeCell="P77" activeCellId="1" sqref="N103:S104 P77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3105,19 +3122,19 @@
         <v>5095254000</v>
       </c>
       <c r="N3" s="28">
-        <v>6381000000</v>
+        <v>6368000000</v>
       </c>
       <c r="O3" s="28">
-        <v>6938000000</v>
+        <v>6924000000</v>
       </c>
       <c r="P3" s="28">
-        <v>7493000000</v>
+        <v>7504000000</v>
       </c>
       <c r="Q3" s="28">
-        <v>7785000000</v>
+        <v>7906000000</v>
       </c>
       <c r="R3" s="28">
-        <v>8285000000</v>
+        <v>8268000000</v>
       </c>
       <c r="S3" s="18" t="s">
         <v>108</v>
@@ -3137,69 +3154,69 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15" t="e">
+      <c r="C4" s="67" t="e">
         <f>(C3/B3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="67">
         <f>(D3/C3)-1</f>
         <v>4.9461915228560693E-2</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="67">
         <f>(E3/D3)-1</f>
         <v>0.18288677540498521</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="67">
         <f t="shared" ref="F4:R4" si="0">(F3/E3)-1</f>
         <v>3.3308113352350954E-2</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="67">
         <f t="shared" si="0"/>
         <v>8.7835525119562385E-2</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="67">
         <f t="shared" si="0"/>
         <v>0.10041789529687439</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="67">
         <f t="shared" si="0"/>
         <v>1.0041294861702355E-3</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="67">
         <f t="shared" si="0"/>
         <v>0.10124605263657993</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="67">
         <f t="shared" si="0"/>
         <v>-8.1459081960858715E-2</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="67">
         <f t="shared" si="0"/>
         <v>0.23443735024380086</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="67">
         <f t="shared" si="0"/>
         <v>0.19301813624969388</v>
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>0.25234188521318068</v>
+        <v>0.24979049130818609</v>
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>8.7290393355273554E-2</v>
+        <v>8.7311557788944727E-2</v>
       </c>
       <c r="P4" s="16">
         <f t="shared" si="0"/>
-        <v>7.999423464975508E-2</v>
+        <v>8.3766608896591599E-2</v>
       </c>
       <c r="Q4" s="16">
         <f t="shared" si="0"/>
-        <v>3.8969705058054194E-2</v>
+        <v>5.3571428571428603E-2</v>
       </c>
       <c r="R4" s="16">
         <f t="shared" si="0"/>
-        <v>6.4226075786769421E-2</v>
+        <v>4.578800910700731E-2</v>
       </c>
       <c r="S4" s="17">
         <f>(M4+L4+K4)/3</f>
@@ -3864,15 +3881,15 @@
       </c>
       <c r="T16" s="41">
         <f>U101/M3</f>
-        <v>10.968785854444155</v>
+        <v>10.759457722814211</v>
       </c>
       <c r="U16" s="41">
         <f>U101/M28</f>
-        <v>59.92699015884385</v>
+        <v>58.783344449043227</v>
       </c>
       <c r="V16" s="42">
         <f>U101/M107</f>
-        <v>93.346901144272536</v>
+        <v>91.565470394390715</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4030,15 +4047,15 @@
       </c>
       <c r="T19" s="41">
         <f>U101/N3</f>
-        <v>8.7586193386616511</v>
+        <v>8.6090091080402011</v>
       </c>
       <c r="U19" s="41">
         <f>U101/N28</f>
-        <v>43.697224394057855</v>
+        <v>42.863307271305708</v>
       </c>
       <c r="V19" s="42">
         <f>U101/N105</f>
-        <v>48.491844626666357</v>
+        <v>47.588780608772971</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4164,23 +4181,23 @@
       </c>
       <c r="N21" s="36">
         <f>N19/N3</f>
-        <v>0.38175834508697698</v>
+        <v>0.38253768844221103</v>
       </c>
       <c r="O21" s="36">
         <f t="shared" ref="O21:R21" si="11">O19/O3</f>
-        <v>0.38944940905159986</v>
+        <v>0.39023685730791452</v>
       </c>
       <c r="P21" s="36">
         <f t="shared" si="11"/>
-        <v>0.38902976111036969</v>
+        <v>0.38845948827292109</v>
       </c>
       <c r="Q21" s="36">
         <f t="shared" si="11"/>
-        <v>0.39460500963391137</v>
+        <v>0.38856564634454843</v>
       </c>
       <c r="R21" s="36">
         <f t="shared" si="11"/>
-        <v>0.37984308992154497</v>
+        <v>0.38062409288824384</v>
       </c>
       <c r="U21" s="18" t="s">
         <v>165</v>
@@ -4229,13 +4246,13 @@
       <c r="M22" s="10">
         <v>1242755000</v>
       </c>
-      <c r="U22" s="69">
+      <c r="U22" s="68">
         <f>(-1*M98)/U101</f>
-        <v>4.464619444879336E-3</v>
-      </c>
-      <c r="V22" s="70">
+        <v>4.5514798119082114E-3</v>
+      </c>
+      <c r="V22" s="65">
         <f>M107/U101</f>
-        <v>1.0712728411352911E-2</v>
+        <v>1.0921147411713182E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4622,23 +4639,23 @@
       </c>
       <c r="N30" s="35">
         <f>N28/N3</f>
-        <v>0.20043880269550227</v>
+        <v>0.20084798994974876</v>
       </c>
       <c r="O30" s="35">
         <f t="shared" ref="O30:R30" si="20">O28/O3</f>
-        <v>0.20812914384548861</v>
+        <v>0.20854997111496246</v>
       </c>
       <c r="P30" s="35">
         <f t="shared" si="20"/>
-        <v>0.2117976778326438</v>
+        <v>0.21148720682302771</v>
       </c>
       <c r="Q30" s="35">
         <f t="shared" si="20"/>
-        <v>0.21952472703917791</v>
+        <v>0.21616493802175563</v>
       </c>
       <c r="R30" s="35">
         <f t="shared" si="20"/>
-        <v>0.2015691007845504</v>
+        <v>0.20198355104015481</v>
       </c>
     </row>
     <row r="31" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -6877,10 +6894,10 @@
       <c r="M83" s="1">
         <v>-153890000</v>
       </c>
-      <c r="T83" s="44" t="s">
+      <c r="T83" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="U83" s="45"/>
+      <c r="U83" s="71"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6922,10 +6939,10 @@
       <c r="M84" s="1">
         <v>103981000</v>
       </c>
-      <c r="T84" s="46" t="s">
+      <c r="T84" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="U84" s="46"/>
+      <c r="U84" s="72"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6967,10 +6984,10 @@
       <c r="M85" s="1">
         <v>140008000</v>
       </c>
-      <c r="T85" s="47" t="s">
+      <c r="T85" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="U85" s="48">
+      <c r="U85" s="45">
         <f>M17</f>
         <v>54196000</v>
       </c>
@@ -7015,10 +7032,10 @@
       <c r="M86" s="1">
         <v>-174460000</v>
       </c>
-      <c r="T86" s="47" t="s">
+      <c r="T86" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="U86" s="48">
+      <c r="U86" s="45">
         <f>M56</f>
         <v>0</v>
       </c>
@@ -7063,10 +7080,10 @@
       <c r="M87" s="10">
         <v>1403340000</v>
       </c>
-      <c r="T87" s="47" t="s">
+      <c r="T87" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="U87" s="48">
+      <c r="U87" s="45">
         <f>M61</f>
         <v>2811779000</v>
       </c>
@@ -7111,10 +7128,10 @@
       <c r="M88" s="1">
         <v>-347725000</v>
       </c>
-      <c r="T88" s="49" t="s">
+      <c r="T88" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="U88" s="50">
+      <c r="U88" s="47">
         <f>U85/(U86+U87)</f>
         <v>1.9274630047382814E-2</v>
       </c>
@@ -7171,10 +7188,10 @@
         <f t="shared" si="25"/>
         <v>6.8244880431868563E-2</v>
       </c>
-      <c r="T89" s="47" t="s">
+      <c r="T89" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="U89" s="48">
+      <c r="U89" s="45">
         <f>M27</f>
         <v>238472000</v>
       </c>
@@ -7232,10 +7249,10 @@
       <c r="M90" s="1">
         <v>-1367000</v>
       </c>
-      <c r="T90" s="47" t="s">
+      <c r="T90" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="U90" s="48">
+      <c r="U90" s="45">
         <f>M25</f>
         <v>1177766000</v>
       </c>
@@ -7280,10 +7297,10 @@
       <c r="M91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="T91" s="49" t="s">
+      <c r="T91" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="U91" s="50">
+      <c r="U91" s="47">
         <f>U89/U90</f>
         <v>0.20247825119760632</v>
       </c>
@@ -7328,10 +7345,10 @@
       <c r="M92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="T92" s="49" t="s">
+      <c r="T92" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="U92" s="50">
+      <c r="U92" s="47">
         <f>U88*(1-U91)</f>
         <v>1.5371936662907907E-2</v>
       </c>
@@ -7376,10 +7393,10 @@
       <c r="M93" s="1">
         <v>-456316000</v>
       </c>
-      <c r="T93" s="46" t="s">
+      <c r="T93" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="U93" s="46"/>
+      <c r="U93" s="72"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7421,12 +7438,12 @@
       <c r="M94" s="10">
         <v>-805408000</v>
       </c>
-      <c r="T94" s="47" t="s">
+      <c r="T94" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="U94" s="71">
+      <c r="U94" s="66">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>4.0119999999999996E-2</v>
       </c>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7469,12 +7486,12 @@
       <c r="M95" s="1">
         <v>-62591000</v>
       </c>
-      <c r="T95" s="47" t="s">
+      <c r="T95" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="U95" s="52" cm="1">
+      <c r="U95" s="49" cm="1">
         <f t="array" ref="U95">_FV(A1,"Beta")</f>
-        <v>0.61150000000000004</v>
+        <v>0.60929999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7517,10 +7534,10 @@
       <c r="M96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="T96" s="47" t="s">
+      <c r="T96" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="U96" s="51">
+      <c r="U96" s="48">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7564,12 +7581,12 @@
       <c r="M97" s="1">
         <v>-396522000</v>
       </c>
-      <c r="T97" s="49" t="s">
+      <c r="T97" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="U97" s="50">
+      <c r="U97" s="47">
         <f>(U94)+((U95)*(U96-U94))</f>
-        <v>6.709248000000001E-2</v>
+        <v>6.6856083999999996E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -7612,10 +7629,10 @@
       <c r="M98" s="1">
         <v>-249522000</v>
       </c>
-      <c r="T98" s="46" t="s">
+      <c r="T98" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="U98" s="46"/>
+      <c r="U98" s="72"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7657,10 +7674,10 @@
       <c r="M99" s="1">
         <v>155075000</v>
       </c>
-      <c r="T99" s="47" t="s">
+      <c r="T99" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="U99" s="48">
+      <c r="U99" s="45">
         <f>U86+U87</f>
         <v>2811779000</v>
       </c>
@@ -7705,12 +7722,12 @@
       <c r="M100" s="10">
         <v>-553560000</v>
       </c>
-      <c r="T100" s="49" t="s">
+      <c r="T100" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="U100" s="50">
+      <c r="U100" s="47">
         <f>U99/U103</f>
-        <v>4.7900403078139211E-2</v>
+        <v>4.8786853040384236E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7753,12 +7770,12 @@
       <c r="M101" s="1">
         <v>383000</v>
       </c>
-      <c r="T101" s="47" t="s">
+      <c r="T101" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="U101" s="53" cm="1">
+      <c r="U101" s="50" cm="1">
         <f t="array" ref="U101">_FV(A1,"Market cap",TRUE)</f>
-        <v>55888750000</v>
+        <v>54822170000</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7801,12 +7818,12 @@
       <c r="M102" s="10">
         <v>44755000</v>
       </c>
-      <c r="T102" s="49" t="s">
+      <c r="T102" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="U102" s="50">
+      <c r="U102" s="47">
         <f>U101/U103</f>
-        <v>0.95209959692186075</v>
+        <v>0.95121314695961579</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7849,12 +7866,15 @@
       <c r="M103" s="1">
         <v>1344146000</v>
       </c>
-      <c r="T103" s="49" t="s">
+      <c r="S103" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="T103" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="U103" s="54">
+      <c r="U103" s="51">
         <f>U99+U101</f>
-        <v>58700529000</v>
+        <v>57633949000</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7897,10 +7917,34 @@
       <c r="M104" s="11">
         <v>1388901000</v>
       </c>
-      <c r="T104" s="46" t="s">
+      <c r="N104" s="73">
+        <f>(N106/M105)-1</f>
+        <v>3.0252881405374632E-2</v>
+      </c>
+      <c r="O104" s="73">
+        <f>(O106/N106)-1</f>
+        <v>0.17209302325581399</v>
+      </c>
+      <c r="P104" s="73">
+        <f>(P106/O106)-1</f>
+        <v>0.12222222222222223</v>
+      </c>
+      <c r="Q104" s="73">
+        <f>(Q106/P106)-1</f>
+        <v>0.13295615275813288</v>
+      </c>
+      <c r="R104" s="73">
+        <f>(R106/Q106)-1</f>
+        <v>0.12359550561797761</v>
+      </c>
+      <c r="S104" s="73">
+        <f>SUM(N104:R104)/5</f>
+        <v>0.11622395705190428</v>
+      </c>
+      <c r="T104" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="U104" s="46"/>
+      <c r="U104" s="72"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -7956,33 +8000,33 @@
       </c>
       <c r="N105" s="31">
         <f>M105*(1+$U$106)</f>
-        <v>1152539162.6217077</v>
+        <v>1151997788.1066689</v>
       </c>
       <c r="O105" s="31">
         <f t="shared" ref="O105:R105" si="27">N105*(1+$U$106)</f>
-        <v>1273053796.4215815</v>
+        <v>1271858111.2117231</v>
       </c>
       <c r="P105" s="31">
         <f t="shared" si="27"/>
-        <v>1406169977.6837385</v>
+        <v>1404189375.8438957</v>
       </c>
       <c r="Q105" s="31">
         <f t="shared" si="27"/>
-        <v>1553205380.3987737</v>
+        <v>1550289128.8355649</v>
       </c>
       <c r="R105" s="31">
         <f t="shared" si="27"/>
-        <v>1715615460.4250004</v>
+        <v>1711589921.0826399</v>
       </c>
       <c r="S105" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="T105" s="55" t="s">
+      <c r="T105" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="U105" s="56">
+      <c r="U105" s="53">
         <f>(U100*U92)+(U102*U97)</f>
-        <v>6.461504512673294E-2</v>
+        <v>6.4344334469955786E-2</v>
       </c>
       <c r="V105" s="15"/>
       <c r="AH105" s="15"/>
@@ -8010,47 +8054,47 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:M106" si="28">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="28"/>
         <v>-0.10313565299165395</v>
       </c>
       <c r="E106" s="15">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="28"/>
         <v>-0.47535101659649071</v>
       </c>
       <c r="F106" s="15">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="28"/>
         <v>2.6570069429264382</v>
       </c>
       <c r="G106" s="15">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="28"/>
         <v>0.88802960222016658</v>
       </c>
       <c r="H106" s="15">
-        <f>(H107/G107)-1</f>
+        <f t="shared" si="28"/>
         <v>-0.5908576959258991</v>
       </c>
       <c r="I106" s="15">
-        <f>(I107/H107)-1</f>
+        <f t="shared" si="28"/>
         <v>8.9598325650634303E-2</v>
       </c>
       <c r="J106" s="15">
-        <f>(J107/I107)-1</f>
+        <f t="shared" si="28"/>
         <v>1.0306758424781455</v>
       </c>
       <c r="K106" s="15">
-        <f>(K107/J107)-1</f>
+        <f t="shared" si="28"/>
         <v>-0.78481417397053366</v>
       </c>
       <c r="L106" s="15">
-        <f>(L107/K107)-1</f>
+        <f t="shared" si="28"/>
         <v>3.2222884340053399</v>
       </c>
       <c r="M106" s="15">
-        <f>(M107/L107)-1</f>
+        <f t="shared" si="28"/>
         <v>9.7396729736813681E-2</v>
       </c>
       <c r="N106" s="39">
@@ -8071,12 +8115,12 @@
       <c r="S106" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="T106" s="57" t="s">
+      <c r="T106" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="U106" s="58">
+      <c r="U106" s="55">
         <f>(SUM(N4:R4)/5)</f>
-        <v>0.10456445881260659</v>
+        <v>0.10404561913443167</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -8125,133 +8169,133 @@
       <c r="Q107" s="32"/>
       <c r="R107" s="40">
         <f>R106*(1+U107)/(U108-U107)</f>
-        <v>46573214648.566963</v>
+        <v>46893663976.166206</v>
       </c>
       <c r="S107" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="T107" s="59" t="s">
+      <c r="T107" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="U107" s="60">
+      <c r="U107" s="57">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="N108" s="40">
-        <f t="shared" ref="N108:Q108" si="28">N107+N106</f>
+        <f t="shared" ref="N108:Q108" si="29">N107+N106</f>
         <v>1075000000</v>
       </c>
       <c r="O108" s="40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1260000000</v>
       </c>
       <c r="P108" s="40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1414000000</v>
       </c>
       <c r="Q108" s="40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1602000000</v>
       </c>
       <c r="R108" s="40">
         <f>R107+R106</f>
-        <v>48373214648.566963</v>
+        <v>48693663976.166206</v>
       </c>
       <c r="S108" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="T108" s="61" t="s">
+      <c r="T108" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="U108" s="58">
+      <c r="U108" s="55">
         <f>U105</f>
-        <v>6.461504512673294E-2</v>
+        <v>6.4344334469955786E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="N109" s="62" t="s">
+      <c r="N109" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="O109" s="62"/>
+      <c r="O109" s="69"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="N110" s="63" t="s">
+      <c r="N110" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="O110" s="53">
+      <c r="O110" s="50">
         <f>NPV(U108,N108,O108,P108,Q108,R108)</f>
-        <v>39910932831.263214</v>
+        <v>40193534496.66011</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="N111" s="63" t="s">
+      <c r="N111" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="O111" s="53">
+      <c r="O111" s="50">
         <f>M40</f>
         <v>1395969000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="N112" s="63" t="s">
+      <c r="N112" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="O112" s="53">
+      <c r="O112" s="50">
         <f>U99</f>
         <v>2811779000</v>
       </c>
     </row>
     <row r="113" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N113" s="63" t="s">
+      <c r="N113" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="O113" s="53">
+      <c r="O113" s="50">
         <f>O110+O111-O112</f>
-        <v>38495122831.263214</v>
+        <v>38777724496.66011</v>
       </c>
     </row>
     <row r="114" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N114" s="63" t="s">
+      <c r="N114" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="O114" s="63">
+      <c r="O114" s="59">
         <f>M34*(1+(S16*5))</f>
         <v>179940705.77714956</v>
       </c>
     </row>
     <row r="115" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N115" s="64" t="s">
+      <c r="N115" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="O115" s="65">
+      <c r="O115" s="61">
         <f>O113/O114</f>
-        <v>213.93226543713857</v>
+        <v>215.50279204020131</v>
       </c>
     </row>
     <row r="116" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N116" s="63" t="s">
+      <c r="N116" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="O116" s="66" cm="1">
+      <c r="O116" s="62" cm="1">
         <f t="array" ref="O116">_FV(A1,"Price")</f>
-        <v>288.2</v>
+        <v>286.10000000000002</v>
       </c>
     </row>
     <row r="117" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N117" s="64" t="s">
+      <c r="N117" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="O117" s="67">
+      <c r="O117" s="63">
         <f>O115/O116-1</f>
-        <v>-0.25769512339646572</v>
+        <v>-0.24675710576651066</v>
       </c>
     </row>
     <row r="118" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N118" s="64" t="s">
+      <c r="N118" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="O118" s="68" t="str">
+      <c r="O118" s="64" t="str">
         <f>IF(O115&gt;O116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Consumer/Ferrari.xlsx
+++ b/Consumer/Ferrari.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7826140B-6D2C-DC4A-A31C-6E4C623820FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADA2F96-C0FA-ED4F-BBAC-D846136B6409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="250">
   <si>
     <t>2012 Y</t>
   </si>
@@ -828,6 +828,12 @@
   </si>
   <si>
     <t>WACC</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
   </si>
 </sst>
 </file>
@@ -841,7 +847,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -943,11 +949,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -995,6 +996,17 @@
     <font>
       <b/>
       <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1081,7 +1093,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1126,65 +1138,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1193,23 +1148,212 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1219,7 +1363,29 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1227,7 +1393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1294,245 +1460,265 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="14" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="12"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="10" fontId="20" fillId="9" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1567,13 +1753,11 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Quality"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1590,7 +1774,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8399999999999999E-2</v>
+            <v>4.4839999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1603,8 +1787,6 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1730,11 +1912,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>300.5</v>
-    <v>189.2</v>
-    <v>0.56989999999999996</v>
-    <v>-1.5</v>
-    <v>-5.2719999999999998E-3</v>
+    <v>338</v>
+    <v>197.55</v>
+    <v>0.5988</v>
+    <v>1.1000000000000001</v>
+    <v>3.2740000000000004E-3</v>
     <v>EUR</v>
     <v>Ferrari NV, known as Ferrari, is an Italy-based designer, manufacturer and retailer of sports cars that is incorporated in the Netherlands. It operates under the Ferrari brand. Its sports cars portfolio includes, among others, F12berlinetta, FF, Ferrari 488 GTB, 488 Spider, 458 Speciale, Ferrari California T, F12tdf and LaFerrari. The Company also offers financing services through Ferrari Financial Services. It also produces limited series and one-off cars. The Company divides its regional markets in EMEA (Europe, the Middle East, India and Africa), Americas, Greater China and Rest of APAC (Asia-Pacific region, excluding Greater China) and is active in over 60 markets worldwide through a network of authorized dealers.</v>
     <v>4953</v>
@@ -1742,24 +1924,24 @@
     <v>XMIL</v>
     <v>XMIL</v>
     <v>Via Abetone Inferiore No. 4, MARANELLO, MODENA, 41053 IT</v>
-    <v>285.39999999999998</v>
+    <v>338</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45225.666666666664</v>
+    <v>45257.708333333336</v>
     <v>0</v>
-    <v>278.60000000000002</v>
-    <v>55171230000</v>
+    <v>333.7</v>
+    <v>64950120000</v>
     <v>Ferrari NV</v>
     <v>Ferrari NV</v>
-    <v>281.89999999999998</v>
-    <v>47.868699999999997</v>
-    <v>284.5</v>
-    <v>283</v>
+    <v>336.5</v>
+    <v>51.878300000000003</v>
+    <v>336</v>
+    <v>337.1</v>
     <v>193923500</v>
     <v>RACE</v>
     <v>Ferrari NV (XMIL:RACE)</v>
-    <v>277032</v>
-    <v>281560</v>
+    <v>204186</v>
+    <v>257120</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -1781,13 +1963,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>329.88</v>
-    <v>188.93</v>
-    <v>0.56989999999999996</v>
-    <v>-2.2000000000000002</v>
-    <v>-7.3499999999999998E-3</v>
-    <v>-0.06</v>
-    <v>-2.019E-4</v>
+    <v>369.91</v>
+    <v>209.88</v>
+    <v>0.5988</v>
+    <v>2.2200000000000002</v>
+    <v>6.0419999999999996E-3</v>
+    <v>0.18</v>
+    <v>4.8689999999999996E-4</v>
     <v>USD</v>
     <v>Ferrari NV, known as Ferrari, is an Italy-based designer, manufacturer and retailer of sports cars that is incorporated in the Netherlands. It operates under the Ferrari brand. Its sports cars portfolio includes, among others, F12berlinetta, FF, Ferrari 488 GTB, 488 Spider, 458 Speciale, Ferrari California T, F12tdf and LaFerrari. The Company also offers financing services through Ferrari Financial Services. It also produces limited series and one-off cars. The Company divides its regional markets in EMEA (Europe, the Middle East, India and Africa), Americas, Greater China and Rest of APAC (Asia-Pacific region, excluding Greater China) and is active in over 60 markets worldwide through a network of authorized dealers.</v>
     <v>4953</v>
@@ -1795,25 +1977,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Via Abetone Inferiore No. 4, MARANELLO, MODENA, 41053 IT</v>
-    <v>300.01799999999997</v>
+    <v>369.91</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45225.958333356248</v>
+    <v>45258.008891897654</v>
     <v>3</v>
-    <v>296.33999999999997</v>
-    <v>55171230000</v>
+    <v>367.79</v>
+    <v>64950120000</v>
     <v>Ferrari NV</v>
     <v>Ferrari NV</v>
-    <v>299.22000000000003</v>
-    <v>46.404699999999998</v>
-    <v>299.31</v>
-    <v>297.11</v>
-    <v>297.05</v>
+    <v>367.99</v>
+    <v>53.820999999999998</v>
+    <v>367.44</v>
+    <v>369.66</v>
+    <v>369.84</v>
     <v>193923500</v>
     <v>RACE</v>
     <v>Ferrari NV (XNYS:RACE)</v>
-    <v>302437</v>
-    <v>311976</v>
+    <v>207521</v>
+    <v>357695</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2579,8 +2761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -15681,8 +15863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53EF540-0C8D-F540-A97E-1227F575B036}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15690,329 +15872,334 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="e" vm="2">
+    <row r="1" spans="1:16" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="120" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-    </row>
-    <row r="2" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+    </row>
+    <row r="2" spans="1:16" s="121" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="120"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" cm="1">
+      <c r="A3" s="48" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>55171230000</v>
-      </c>
-      <c r="B3" s="41" t="s">
+        <v>64950120000</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="50">
         <f>Financials!M8*0.01</f>
         <v>0.48970000000000002</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="50">
         <f>SUM(C11:E11)/3</f>
         <v>9.0959678968310767E-2</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="52">
         <f>AVERAGE(Financials!I129:M129)</f>
         <v>-7.1182096555856946E-3</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="I3" s="45">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>45150483378.476547</v>
-      </c>
-      <c r="J3" s="41" t="s">
+      <c r="I3" s="53">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>45123101659.412117</v>
+      </c>
+      <c r="J3" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="117" t="s">
+      <c r="K3" s="55">
+        <f>(Financials!L172*-1)/Model!A3</f>
+        <v>4.1114386547707691E-3</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="M3" s="40"/>
+      <c r="N3" s="122" t="s">
         <v>204</v>
       </c>
-      <c r="O3" s="118"/>
-      <c r="P3" s="48"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="40"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49">
+      <c r="A4" s="57">
         <f>Financials!M56-Financials!M96-Financials!M105</f>
         <v>-1709828230</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="42">
         <f>Financials!M17*0.01</f>
         <v>0.26079999999999998</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="42">
         <f>SUM(C13:E13)/3</f>
         <v>9.3583304513172802E-2</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="60">
         <f>A5*(1+(5*G3))</f>
         <v>187021559.34927514</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="I4" s="55">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>38640858036.575378</v>
-      </c>
-      <c r="J4" s="54" t="s">
+      <c r="I4" s="41">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>38616712270.131683</v>
+      </c>
+      <c r="J4" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="K4" s="56">
-        <f>(Financials!M172*-1)/Model!A3</f>
-        <v>3.2876245463441727E-4</v>
-      </c>
-      <c r="L4" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="M4" s="48"/>
-      <c r="N4" s="119" t="s">
+      <c r="K4" s="61" cm="1">
+        <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
+        <v>6.0419999999999996E-3</v>
+      </c>
+      <c r="L4" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="M4" s="40"/>
+      <c r="N4" s="124" t="s">
         <v>211</v>
       </c>
-      <c r="O4" s="120"/>
-      <c r="P4" s="48"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="40"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" cm="1">
+      <c r="A5" s="57" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>193923500</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="C5" s="58">
-        <f>Financials!M34*0.01</f>
-        <v>0.19510000000000002</v>
-      </c>
-      <c r="D5" s="50" t="s">
+      <c r="C5" s="42">
+        <f>F14</f>
+        <v>0.20346952010376135</v>
+      </c>
+      <c r="D5" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="E5" s="51">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="42">
+        <f>SUM(C16:E16)/3</f>
         <v>0.48389525044254933</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="60">
         <f>Financials!M56</f>
         <v>1215291039</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="41">
         <f>I4+G5-G6</f>
-        <v>36931029806.575378</v>
-      </c>
-      <c r="J5" s="54" t="s">
+        <v>36906884040.131683</v>
+      </c>
+      <c r="J5" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="K5" s="59" cm="1">
+      <c r="K5" s="64" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>297.11</v>
-      </c>
-      <c r="L5" s="57" t="s">
+        <v>369.66</v>
+      </c>
+      <c r="L5" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="M5" s="48"/>
-      <c r="N5" s="60" t="s">
+      <c r="M5" s="40"/>
+      <c r="N5" s="104" t="s">
         <v>218</v>
       </c>
-      <c r="O5" s="61">
+      <c r="O5" s="105">
         <f>Financials!M20</f>
         <v>46824307</v>
       </c>
-      <c r="P5" s="48"/>
+      <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62">
+      <c r="A6" s="66">
         <f>O20/F10</f>
-        <v>8.944751945525292</v>
-      </c>
-      <c r="B6" s="50" t="s">
+        <v>10.530175097276265</v>
+      </c>
+      <c r="B6" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="51">
-        <f>Financials!M190</f>
-        <v>0.13154123264470372</v>
+      <c r="C6" s="42">
+        <f>F17</f>
+        <v>0.16812581063553828</v>
       </c>
       <c r="D6" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="42">
         <f>Financials!M33/Financials!M126</f>
         <v>0.38256808647381213</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="60">
         <f>Financials!M96+Financials!M105</f>
         <v>2925119269</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="61">
         <f>N25</f>
-        <v>6.5863349890059431E-2</v>
-      </c>
-      <c r="J6" s="54" t="s">
+        <v>6.5888146695366981E-2</v>
+      </c>
+      <c r="J6" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="67">
         <f>I5/G4</f>
-        <v>197.46937163326842</v>
-      </c>
-      <c r="L6" s="66" t="s">
+        <v>197.34026477239254</v>
+      </c>
+      <c r="L6" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="M6" s="48"/>
-      <c r="N6" s="67" t="s">
+      <c r="M6" s="40"/>
+      <c r="N6" s="104" t="s">
         <v>224</v>
       </c>
-      <c r="O6" s="68">
+      <c r="O6" s="105">
         <f>Financials!M96</f>
         <v>0</v>
       </c>
-      <c r="P6" s="48"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P6" s="40"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="69">
         <f>O20/F12</f>
-        <v>43.961139442231072</v>
+        <v>51.753083665338643</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>225</v>
       </c>
       <c r="C7" s="71">
-        <f>F14/A3</f>
-        <v>1.8796028292282045E-2</v>
-      </c>
-      <c r="D7" s="72" t="s">
+        <f>F15/A3</f>
+        <v>1.5966098292043186E-2</v>
+      </c>
+      <c r="D7" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="72">
         <f>Financials!M36</f>
         <v>0.19361929468214412</v>
       </c>
       <c r="F7" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="73">
         <f>(Financials!M96+Financials!M105)/Financials!M126</f>
         <v>0.98131784190079685</v>
       </c>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="I7" s="76">
+      <c r="I7" s="75">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="77" t="s">
+      <c r="J7" s="76" t="s">
         <v>228</v>
       </c>
-      <c r="K7" s="78">
+      <c r="K7" s="77">
         <f>K6/K5-1</f>
-        <v>-0.33536612152647705</v>
-      </c>
-      <c r="L7" s="79" t="s">
+        <v>-0.46615737495971288</v>
+      </c>
+      <c r="L7" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="M7" s="48"/>
-      <c r="N7" s="67" t="s">
+      <c r="M7" s="40"/>
+      <c r="N7" s="104" t="s">
         <v>230</v>
       </c>
-      <c r="O7" s="68">
+      <c r="O7" s="105">
         <f>Financials!M105</f>
         <v>2925119269</v>
       </c>
-      <c r="P7" s="48"/>
+      <c r="P7" s="40"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="80"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="81" t="s">
+      <c r="A8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="106" t="s">
         <v>211</v>
       </c>
-      <c r="O8" s="82">
+      <c r="O8" s="107">
         <f>O5/(O6+O7)</f>
         <v>1.6007657361611673E-2</v>
       </c>
-      <c r="P8" s="48"/>
+      <c r="P8" s="40"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="83"/>
-      <c r="B9" s="84">
+      <c r="A9" s="82"/>
+      <c r="B9" s="83">
         <v>2019</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="83">
         <v>2020</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="83">
         <v>2021</v>
       </c>
       <c r="E9" s="84">
@@ -16030,96 +16217,97 @@
       <c r="I9" s="86">
         <v>2026</v>
       </c>
-      <c r="J9" s="86">
+      <c r="J9" s="87">
         <v>2027</v>
       </c>
-      <c r="K9" s="87"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="67" t="s">
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="104" t="s">
         <v>231</v>
       </c>
-      <c r="O9" s="68">
+      <c r="O9" s="105">
         <f>Financials!M25</f>
         <v>312653783</v>
       </c>
-      <c r="P9" s="48"/>
+      <c r="P9" s="40"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="88" t="s">
         <v>232</v>
       </c>
-      <c r="B10" s="90">
+      <c r="B10" s="89">
         <v>4222375603</v>
       </c>
-      <c r="C10" s="90">
+      <c r="C10" s="89">
         <v>4225441527</v>
       </c>
-      <c r="D10" s="90">
+      <c r="D10" s="89">
         <v>4855152513</v>
       </c>
       <c r="E10" s="90">
         <v>5452940627</v>
       </c>
-      <c r="F10" s="91">
+      <c r="F10" s="89">
         <v>6168000000</v>
       </c>
-      <c r="G10" s="90">
+      <c r="G10" s="89">
         <v>6730000000</v>
       </c>
-      <c r="H10" s="90">
+      <c r="H10" s="89">
         <v>7287000000</v>
       </c>
-      <c r="I10" s="90">
+      <c r="I10" s="89">
         <v>7600000000</v>
       </c>
       <c r="J10" s="90">
         <v>7950000000</v>
       </c>
-      <c r="K10" s="92" t="s">
+      <c r="K10" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="N10" s="67" t="s">
+      <c r="L10" s="81"/>
+      <c r="N10" s="104" t="s">
         <v>234</v>
       </c>
-      <c r="O10" s="68">
+      <c r="O10" s="105">
         <f>Financials!M24</f>
         <v>1459622794</v>
       </c>
-      <c r="P10" s="48"/>
+      <c r="P10" s="40"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="93"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94">
+      <c r="A11" s="92"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>7.2611351719209516E-4</v>
       </c>
-      <c r="D11" s="94">
+      <c r="D11" s="93">
         <f t="shared" si="0"/>
         <v>0.14902844637092527</v>
       </c>
-      <c r="E11" s="94">
+      <c r="E11" s="93">
         <f t="shared" si="0"/>
         <v>0.12312447701681495</v>
       </c>
-      <c r="F11" s="95">
+      <c r="F11" s="94">
         <f t="shared" si="0"/>
         <v>0.13113280006377015</v>
       </c>
-      <c r="G11" s="94">
+      <c r="G11" s="93">
         <f t="shared" si="0"/>
         <v>9.1115434500648407E-2</v>
       </c>
-      <c r="H11" s="94">
+      <c r="H11" s="93">
         <f t="shared" si="0"/>
         <v>8.2763744427934549E-2</v>
       </c>
-      <c r="I11" s="94">
+      <c r="I11" s="93">
         <f t="shared" si="0"/>
         <v>4.2953204336489748E-2</v>
       </c>
-      <c r="J11" s="94">
+      <c r="J11" s="95">
         <f t="shared" si="0"/>
         <v>4.6052631578947345E-2</v>
       </c>
@@ -16127,94 +16315,94 @@
         <f>SUM(F11:J11)/5</f>
         <v>7.8803562981558037E-2</v>
       </c>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="67" t="s">
+      <c r="L11" s="81"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="104" t="s">
         <v>235</v>
       </c>
-      <c r="O11" s="96">
+      <c r="O11" s="108">
         <f>O9/O10</f>
         <v>0.2142017679397791</v>
       </c>
-      <c r="P11" s="48"/>
+      <c r="P11" s="40"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="90">
+      <c r="B12" s="89">
         <v>780012013</v>
       </c>
-      <c r="C12" s="90">
+      <c r="C12" s="89">
         <v>742326902</v>
       </c>
-      <c r="D12" s="90">
+      <c r="D12" s="89">
         <v>944415967</v>
       </c>
-      <c r="E12" s="90">
+      <c r="E12" s="89">
         <v>998083465</v>
       </c>
-      <c r="F12" s="91">
+      <c r="F12" s="96">
         <v>1255000000</v>
       </c>
-      <c r="G12" s="90">
+      <c r="G12" s="89">
         <v>1428000000</v>
       </c>
-      <c r="H12" s="90">
+      <c r="H12" s="89">
         <v>1567000000</v>
       </c>
-      <c r="I12" s="90">
+      <c r="I12" s="89">
         <v>1723000000</v>
       </c>
       <c r="J12" s="90">
         <v>1900000000</v>
       </c>
-      <c r="K12" s="92" t="s">
+      <c r="K12" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="97" t="s">
+      <c r="L12" s="81"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="104" t="s">
         <v>237</v>
       </c>
-      <c r="O12" s="98">
+      <c r="O12" s="108">
         <f>O8*(1-O11)</f>
         <v>1.2578788854180232E-2</v>
       </c>
-      <c r="P12" s="48"/>
+      <c r="P12" s="40"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="93"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94">
+      <c r="A13" s="92"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>-4.8313500781942409E-2</v>
       </c>
-      <c r="D13" s="94">
+      <c r="D13" s="93">
         <f t="shared" si="1"/>
         <v>0.27223729121971108</v>
       </c>
-      <c r="E13" s="94">
+      <c r="E13" s="93">
         <f t="shared" si="1"/>
         <v>5.6826123101749726E-2</v>
       </c>
-      <c r="F13" s="95">
+      <c r="F13" s="94">
         <f t="shared" si="1"/>
         <v>0.25740987002524873</v>
       </c>
-      <c r="G13" s="94">
+      <c r="G13" s="93">
         <f t="shared" si="1"/>
         <v>0.1378486055776893</v>
       </c>
-      <c r="H13" s="94">
+      <c r="H13" s="93">
         <f t="shared" si="1"/>
         <v>9.733893557422979E-2</v>
       </c>
-      <c r="I13" s="94">
+      <c r="I13" s="93">
         <f t="shared" si="1"/>
         <v>9.9553286534779906E-2</v>
       </c>
-      <c r="J13" s="94">
+      <c r="J13" s="95">
         <f t="shared" si="1"/>
         <v>0.10272780034822993</v>
       </c>
@@ -16222,1195 +16410,1252 @@
         <f>SUM(F13:J13)/5</f>
         <v>0.13897569961203554</v>
       </c>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="119" t="s">
+      <c r="L13" s="81"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="124" t="s">
         <v>238</v>
       </c>
-      <c r="O13" s="120"/>
-      <c r="P13" s="48"/>
+      <c r="O13" s="125"/>
+      <c r="P13" s="40"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" s="45">
+        <f>B12/B10</f>
+        <v>0.18473297648977535</v>
+      </c>
+      <c r="C14" s="45">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>0.17568031583365465</v>
+      </c>
+      <c r="D14" s="45">
+        <f t="shared" si="2"/>
+        <v>0.19451829051121716</v>
+      </c>
+      <c r="E14" s="45">
+        <f t="shared" si="2"/>
+        <v>0.18303582108670555</v>
+      </c>
+      <c r="F14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.20346952010376135</v>
+      </c>
+      <c r="G14" s="45">
+        <f t="shared" si="2"/>
+        <v>0.21218424962852897</v>
+      </c>
+      <c r="H14" s="45">
+        <f t="shared" si="2"/>
+        <v>0.21504048305201043</v>
+      </c>
+      <c r="I14" s="45">
+        <f t="shared" si="2"/>
+        <v>0.22671052631578947</v>
+      </c>
+      <c r="J14" s="47">
+        <f t="shared" si="2"/>
+        <v>0.2389937106918239</v>
+      </c>
+      <c r="K14" s="47"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="104" t="s">
+        <v>240</v>
+      </c>
+      <c r="O14" s="108">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.4839999999999998E-2</v>
+      </c>
+      <c r="P14" s="40"/>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="88" t="s">
         <v>183</v>
       </c>
-      <c r="B14" s="90">
+      <c r="B15" s="89">
         <v>631035726</v>
       </c>
-      <c r="C14" s="90">
+      <c r="C15" s="89">
         <v>213795514</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D15" s="89">
         <v>655111378</v>
       </c>
-      <c r="E14" s="90">
+      <c r="E15" s="89">
         <v>687007896</v>
       </c>
-      <c r="F14" s="91">
+      <c r="F15" s="96">
         <v>1037000000</v>
       </c>
-      <c r="G14" s="90">
+      <c r="G15" s="89">
         <v>1232000000</v>
       </c>
-      <c r="H14" s="90">
+      <c r="H15" s="89">
         <v>1442000000</v>
       </c>
-      <c r="I14" s="90">
+      <c r="I15" s="89">
         <v>1630000000</v>
       </c>
-      <c r="J14" s="90">
+      <c r="J15" s="90">
         <v>1800000000</v>
       </c>
-      <c r="K14" s="92" t="s">
+      <c r="K15" s="97" t="s">
         <v>239</v>
       </c>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="67" t="s">
-        <v>240</v>
-      </c>
-      <c r="O14" s="96">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8399999999999999E-2</v>
-      </c>
-      <c r="P14" s="48"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="99"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="81"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="104" t="s">
+        <v>241</v>
+      </c>
+      <c r="O15" s="109" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>0.5988</v>
+      </c>
+      <c r="P15" s="40"/>
+    </row>
+    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="98"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>-0.66119903328579532</v>
       </c>
-      <c r="D15" s="94">
-        <f t="shared" si="2"/>
+      <c r="D16" s="93">
+        <f t="shared" si="3"/>
         <v>2.0641960897271212</v>
       </c>
-      <c r="E15" s="94">
-        <f t="shared" si="2"/>
+      <c r="E16" s="93">
+        <f t="shared" si="3"/>
         <v>4.8688694886322104E-2</v>
       </c>
-      <c r="F15" s="95">
-        <f t="shared" si="2"/>
+      <c r="F16" s="94">
+        <f t="shared" si="3"/>
         <v>0.50944407777228817</v>
       </c>
-      <c r="G15" s="94">
-        <f t="shared" si="2"/>
+      <c r="G16" s="93">
+        <f t="shared" si="3"/>
         <v>0.18804243008678889</v>
       </c>
-      <c r="H15" s="94">
-        <f t="shared" si="2"/>
+      <c r="H16" s="93">
+        <f t="shared" si="3"/>
         <v>0.17045454545454541</v>
       </c>
-      <c r="I15" s="94">
-        <f t="shared" si="2"/>
+      <c r="I16" s="93">
+        <f t="shared" si="3"/>
         <v>0.13037447988904294</v>
       </c>
-      <c r="J15" s="94">
-        <f t="shared" si="2"/>
+      <c r="J16" s="95">
+        <f t="shared" si="3"/>
         <v>0.10429447852760743</v>
       </c>
-      <c r="K15" s="95">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="95">
+        <f>SUM(F16:J16)/5</f>
         <v>0.22052200234605457</v>
       </c>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="67" t="s">
-        <v>241</v>
-      </c>
-      <c r="O15" s="100" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.56989999999999996</v>
-      </c>
-      <c r="P15" s="48"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="89" t="s">
+      <c r="L16" s="81"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="104" t="s">
+        <v>242</v>
+      </c>
+      <c r="O16" s="108">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="40"/>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="45">
+        <f>B15/B10</f>
+        <v>0.14945040075346419</v>
+      </c>
+      <c r="C17" s="45">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>5.0597200939564678E-2</v>
+      </c>
+      <c r="D17" s="45">
+        <f t="shared" si="4"/>
+        <v>0.13493116359288299</v>
+      </c>
+      <c r="E17" s="47">
+        <f t="shared" si="4"/>
+        <v>0.12598851573741882</v>
+      </c>
+      <c r="F17" s="45">
+        <f t="shared" si="4"/>
+        <v>0.16812581063553828</v>
+      </c>
+      <c r="G17" s="45">
+        <f t="shared" si="4"/>
+        <v>0.18306092124814263</v>
+      </c>
+      <c r="H17" s="45">
+        <f t="shared" si="4"/>
+        <v>0.19788664745437079</v>
+      </c>
+      <c r="I17" s="45">
+        <f t="shared" si="4"/>
+        <v>0.21447368421052632</v>
+      </c>
+      <c r="J17" s="47">
+        <f t="shared" si="4"/>
+        <v>0.22641509433962265</v>
+      </c>
+      <c r="K17" s="47"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="110" t="s">
+        <v>238</v>
+      </c>
+      <c r="O17" s="111">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>6.8289007999999998E-2</v>
+      </c>
+      <c r="P17" s="40"/>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="99" t="s">
         <v>194</v>
       </c>
-      <c r="B16" s="101">
+      <c r="B18" s="100">
         <v>0.19267023579164336</v>
       </c>
-      <c r="C16" s="101">
+      <c r="C18" s="100">
         <v>0.1212832157113999</v>
       </c>
-      <c r="D16" s="101">
+      <c r="D18" s="100">
         <v>0.16640026794315971</v>
       </c>
-      <c r="E16" s="101">
+      <c r="E18" s="100">
         <v>0.1721500661212701</v>
       </c>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="67" t="s">
-        <v>242</v>
-      </c>
-      <c r="O16" s="96">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="48"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="88"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="104" t="s">
-        <v>238</v>
-      </c>
-      <c r="O17" s="105">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>6.8688440000000003E-2</v>
-      </c>
-      <c r="P17" s="48"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="119" t="s">
+      <c r="F18" s="101"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="O18" s="120"/>
-      <c r="P18" s="48"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="40"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="110" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Automobiles &amp; Auto Parts</v>
-      </c>
-      <c r="B19" s="110"/>
-      <c r="C19" s="121" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>2015</v>
-      </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="67" t="s">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="104" t="s">
         <v>221</v>
       </c>
-      <c r="O19" s="107">
+      <c r="O19" s="112">
         <f>O6+O7</f>
         <v>2925119269</v>
       </c>
-      <c r="P19" s="48"/>
+      <c r="P19" s="40"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="110" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="104" t="s">
+        <v>199</v>
+      </c>
+      <c r="O20" s="112" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>64950120000</v>
+      </c>
+      <c r="P20" s="40"/>
+    </row>
+    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="126" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Automobiles &amp; Auto Parts</v>
+      </c>
+      <c r="B21" s="126"/>
+      <c r="C21" s="127" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>2015</v>
+      </c>
+      <c r="D21" s="127"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="104" t="s">
+        <v>244</v>
+      </c>
+      <c r="O21" s="112">
+        <f>O19+O20</f>
+        <v>67875239269</v>
+      </c>
+      <c r="P21" s="40"/>
+    </row>
+    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="126" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Ferrari NV, known as Ferrari, is an Italy-based designer, manufacturer and retailer of sports cars that is incorporated in the Netherlands. It operates under the Ferrari brand. Its sports cars portfolio includes, among others, F12berlinetta, FF, Ferrari 488 GTB, 488 Spider, 458 Speciale, Ferrari California T, F12tdf and LaFerrari. The Company also offers financing services through Ferrari Financial Services. It also produces limited series and one-off cars. The Company divides its regional markets in EMEA (Europe, the Middle East, India and Africa), Americas, Greater China and Rest of APAC (Asia-Pacific region, excluding Greater China) and is active in over 60 markets worldwide through a network of authorized dealers.</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="O20" s="107" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>55171230000</v>
-      </c>
-      <c r="P20" s="48"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="110"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="67" t="s">
-        <v>244</v>
-      </c>
-      <c r="O21" s="107">
-        <f>O19+O20</f>
-        <v>58096349269</v>
-      </c>
-      <c r="P21" s="48"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="110"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="81" t="s">
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="106" t="s">
         <v>245</v>
       </c>
-      <c r="O22" s="108">
+      <c r="O22" s="113">
         <f>(O19/O21)</f>
-        <v>5.0349450624788794E-2</v>
-      </c>
-      <c r="P22" s="48"/>
+        <v>4.3095527920090311E-2</v>
+      </c>
+      <c r="P22" s="40"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="110"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="104" t="s">
+      <c r="A23" s="126"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="O23" s="109">
+      <c r="O23" s="114">
         <f>O20/O21</f>
-        <v>0.94965054937521121</v>
-      </c>
-      <c r="P23" s="48"/>
+        <v>0.9569044720799097</v>
+      </c>
+      <c r="P23" s="40"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="110"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="111" t="s">
+      <c r="A24" s="126"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="116" t="s">
         <v>247</v>
       </c>
-      <c r="O24" s="112"/>
-      <c r="P24" s="48"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="40"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="110"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="113">
+      <c r="A25" s="126"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="118">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.5863349890059431E-2</v>
-      </c>
-      <c r="O25" s="114"/>
-      <c r="P25" s="48"/>
+        <v>6.5888146695366981E-2</v>
+      </c>
+      <c r="O25" s="119"/>
+      <c r="P25" s="40"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="110"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="110"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="88"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="88"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
+      <c r="A29" s="126"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="88"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="88"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="88"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="88"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="88"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="88"/>
-      <c r="P34" s="88"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="88"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="88"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="88"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="88"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="88"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="88"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="88"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="88"/>
-      <c r="P37" s="88"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="88"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="88"/>
-      <c r="L38" s="88"/>
-      <c r="M38" s="88"/>
-      <c r="N38" s="88"/>
-      <c r="O38" s="88"/>
-      <c r="P38" s="88"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="88"/>
-      <c r="B39" s="88"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="88"/>
-      <c r="M39" s="88"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="88"/>
-      <c r="P39" s="88"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="88"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="88"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88"/>
-      <c r="P41" s="88"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="88"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="88"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="88"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="88"/>
-      <c r="N43" s="88"/>
-      <c r="O43" s="88"/>
-      <c r="P43" s="88"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="88"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
-      <c r="O44" s="88"/>
-      <c r="P44" s="88"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="88"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="88"/>
-      <c r="P45" s="88"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="88"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="88"/>
-      <c r="P46" s="88"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="88"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="88"/>
-      <c r="P47" s="88"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="88"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="88"/>
-      <c r="L48" s="88"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="88"/>
-      <c r="P48" s="88"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="88"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="88"/>
-      <c r="L49" s="88"/>
-      <c r="M49" s="88"/>
-      <c r="N49" s="88"/>
-      <c r="O49" s="88"/>
-      <c r="P49" s="88"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="88"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="88"/>
-      <c r="M50" s="88"/>
-      <c r="N50" s="88"/>
-      <c r="O50" s="88"/>
-      <c r="P50" s="88"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="88"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="88"/>
-      <c r="L51" s="88"/>
-      <c r="M51" s="88"/>
-      <c r="N51" s="88"/>
-      <c r="O51" s="88"/>
-      <c r="P51" s="88"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="88"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="88"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="88"/>
-      <c r="K52" s="88"/>
-      <c r="L52" s="88"/>
-      <c r="M52" s="88"/>
-      <c r="N52" s="88"/>
-      <c r="O52" s="88"/>
-      <c r="P52" s="88"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="88"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="88"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="88"/>
-      <c r="K53" s="88"/>
-      <c r="L53" s="88"/>
-      <c r="M53" s="88"/>
-      <c r="N53" s="88"/>
-      <c r="O53" s="88"/>
-      <c r="P53" s="88"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="43"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="88"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="88"/>
-      <c r="L54" s="88"/>
-      <c r="M54" s="88"/>
-      <c r="N54" s="88"/>
-      <c r="O54" s="88"/>
-      <c r="P54" s="88"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="88"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
-      <c r="K55" s="88"/>
-      <c r="L55" s="88"/>
-      <c r="M55" s="88"/>
-      <c r="N55" s="88"/>
-      <c r="O55" s="88"/>
-      <c r="P55" s="88"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="88"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="88"/>
-      <c r="H56" s="88"/>
-      <c r="I56" s="88"/>
-      <c r="J56" s="88"/>
-      <c r="K56" s="88"/>
-      <c r="L56" s="88"/>
-      <c r="M56" s="88"/>
-      <c r="N56" s="88"/>
-      <c r="O56" s="88"/>
-      <c r="P56" s="88"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="88"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="88"/>
-      <c r="I57" s="88"/>
-      <c r="J57" s="88"/>
-      <c r="K57" s="88"/>
-      <c r="L57" s="88"/>
-      <c r="M57" s="88"/>
-      <c r="N57" s="88"/>
-      <c r="O57" s="88"/>
-      <c r="P57" s="88"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="88"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="88"/>
-      <c r="E58" s="88"/>
-      <c r="F58" s="88"/>
-      <c r="G58" s="88"/>
-      <c r="H58" s="88"/>
-      <c r="I58" s="88"/>
-      <c r="J58" s="88"/>
-      <c r="K58" s="88"/>
-      <c r="L58" s="88"/>
-      <c r="M58" s="88"/>
-      <c r="N58" s="88"/>
-      <c r="O58" s="88"/>
-      <c r="P58" s="88"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="88"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="88"/>
-      <c r="L59" s="88"/>
-      <c r="M59" s="88"/>
-      <c r="N59" s="88"/>
-      <c r="O59" s="88"/>
-      <c r="P59" s="88"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="88"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="88"/>
-      <c r="H60" s="88"/>
-      <c r="I60" s="88"/>
-      <c r="J60" s="88"/>
-      <c r="K60" s="88"/>
-      <c r="L60" s="88"/>
-      <c r="M60" s="88"/>
-      <c r="N60" s="88"/>
-      <c r="O60" s="88"/>
-      <c r="P60" s="88"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="88"/>
-      <c r="B61" s="88"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="88"/>
-      <c r="F61" s="88"/>
-      <c r="G61" s="88"/>
-      <c r="H61" s="88"/>
-      <c r="I61" s="88"/>
-      <c r="J61" s="88"/>
-      <c r="K61" s="88"/>
-      <c r="L61" s="88"/>
-      <c r="M61" s="88"/>
-      <c r="N61" s="88"/>
-      <c r="O61" s="88"/>
-      <c r="P61" s="88"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="48"/>
-      <c r="P62" s="48"/>
+      <c r="O62" s="40"/>
+      <c r="P62" s="40"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="48"/>
-      <c r="P63" s="48"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="48"/>
-      <c r="P64" s="48"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="48"/>
-      <c r="P65" s="48"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="48"/>
-      <c r="P66" s="48"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="48"/>
-      <c r="P67" s="48"/>
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="48"/>
-      <c r="P68" s="48"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="48"/>
-      <c r="P69" s="48"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="48"/>
-      <c r="P70" s="48"/>
+      <c r="O70" s="40"/>
+      <c r="P70" s="40"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="48"/>
-      <c r="P71" s="48"/>
+      <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="48"/>
-      <c r="P72" s="48"/>
+      <c r="O72" s="40"/>
+      <c r="P72" s="40"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="48"/>
-      <c r="P73" s="48"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="48"/>
-      <c r="P74" s="48"/>
+      <c r="O74" s="40"/>
+      <c r="P74" s="40"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="48"/>
-      <c r="P75" s="48"/>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="48"/>
-      <c r="P76" s="48"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="48"/>
-      <c r="P77" s="48"/>
+      <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="48"/>
-      <c r="P78" s="48"/>
+      <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="48"/>
-      <c r="P79" s="48"/>
+      <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="48"/>
-      <c r="P80" s="48"/>
+      <c r="O80" s="40"/>
+      <c r="P80" s="40"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="48"/>
-      <c r="P81" s="48"/>
+      <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="48"/>
-      <c r="P82" s="48"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="48"/>
-      <c r="P83" s="48"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="48"/>
-      <c r="P84" s="48"/>
+      <c r="O84" s="40"/>
+      <c r="P84" s="40"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="48"/>
-      <c r="P85" s="48"/>
+      <c r="O85" s="40"/>
+      <c r="P85" s="40"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="48"/>
-      <c r="P86" s="48"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="48"/>
-      <c r="P87" s="48"/>
+      <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="48"/>
-      <c r="P88" s="48"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="48"/>
-      <c r="P89" s="48"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="48"/>
-      <c r="P90" s="48"/>
+      <c r="O90" s="40"/>
+      <c r="P90" s="40"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="48"/>
-      <c r="P91" s="48"/>
+      <c r="O91" s="40"/>
+      <c r="P91" s="40"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="48"/>
-      <c r="P92" s="48"/>
+      <c r="O92" s="40"/>
+      <c r="P92" s="40"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="48"/>
-      <c r="P93" s="48"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="48"/>
-      <c r="P94" s="48"/>
+      <c r="O94" s="40"/>
+      <c r="P94" s="40"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="48"/>
-      <c r="P95" s="48"/>
+      <c r="O95" s="40"/>
+      <c r="P95" s="40"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="48"/>
-      <c r="P96" s="48"/>
+      <c r="O96" s="40"/>
+      <c r="P96" s="40"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="48"/>
-      <c r="P97" s="48"/>
+      <c r="O97" s="40"/>
+      <c r="P97" s="40"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="48"/>
-      <c r="P98" s="48"/>
+      <c r="O98" s="40"/>
+      <c r="P98" s="40"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="48"/>
-      <c r="P99" s="48"/>
+      <c r="O99" s="40"/>
+      <c r="P99" s="40"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="48"/>
-      <c r="P100" s="48"/>
+      <c r="O100" s="40"/>
+      <c r="P100" s="40"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="48"/>
-      <c r="P101" s="48"/>
+      <c r="O101" s="40"/>
+      <c r="P101" s="40"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="48"/>
-      <c r="P102" s="48"/>
+      <c r="O102" s="40"/>
+      <c r="P102" s="40"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="48"/>
-      <c r="P103" s="48"/>
+      <c r="O103" s="40"/>
+      <c r="P103" s="40"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="48"/>
-      <c r="P104" s="48"/>
+      <c r="O104" s="40"/>
+      <c r="P104" s="40"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="48"/>
-      <c r="P105" s="48"/>
+      <c r="O105" s="40"/>
+      <c r="P105" s="40"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="48"/>
-      <c r="P106" s="48"/>
+      <c r="O106" s="40"/>
+      <c r="P106" s="40"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="48"/>
-      <c r="P107" s="48"/>
+      <c r="O107" s="40"/>
+      <c r="P107" s="40"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="48"/>
-      <c r="P108" s="48"/>
+      <c r="O108" s="40"/>
+      <c r="P108" s="40"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="48"/>
-      <c r="P109" s="48"/>
+      <c r="O109" s="40"/>
+      <c r="P109" s="40"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="48"/>
-      <c r="P110" s="48"/>
+      <c r="O110" s="40"/>
+      <c r="P110" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -17418,8 +17663,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:RACE/explorer/revenue_proj" xr:uid="{85B96991-088D-494D-97C1-78A45DB6DB48}"/>

--- a/Consumer/Ferrari.xlsx
+++ b/Consumer/Ferrari.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADA2F96-C0FA-ED4F-BBAC-D846136B6409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336AD4DC-C114-8142-9775-D0769C1A1FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1751,12 +1751,14 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Quality"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1774,7 +1776,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.4839999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1787,6 +1789,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1912,11 +1916,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>338</v>
+    <v>340.9</v>
     <v>197.55</v>
-    <v>0.5988</v>
-    <v>1.1000000000000001</v>
-    <v>3.2740000000000004E-3</v>
+    <v>0.57589999999999997</v>
+    <v>3.7</v>
+    <v>1.0979000000000001E-2</v>
     <v>EUR</v>
     <v>Ferrari NV, known as Ferrari, is an Italy-based designer, manufacturer and retailer of sports cars that is incorporated in the Netherlands. It operates under the Ferrari brand. Its sports cars portfolio includes, among others, F12berlinetta, FF, Ferrari 488 GTB, 488 Spider, 458 Speciale, Ferrari California T, F12tdf and LaFerrari. The Company also offers financing services through Ferrari Financial Services. It also produces limited series and one-off cars. The Company divides its regional markets in EMEA (Europe, the Middle East, India and Africa), Americas, Greater China and Rest of APAC (Asia-Pacific region, excluding Greater China) and is active in over 60 markets worldwide through a network of authorized dealers.</v>
     <v>4953</v>
@@ -1924,24 +1928,24 @@
     <v>XMIL</v>
     <v>XMIL</v>
     <v>Via Abetone Inferiore No. 4, MARANELLO, MODENA, 41053 IT</v>
-    <v>338</v>
+    <v>340.9</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45257.708333333336</v>
+    <v>45268.708333333336</v>
     <v>0</v>
-    <v>333.7</v>
-    <v>64950120000</v>
+    <v>335.5</v>
+    <v>65352220000</v>
     <v>Ferrari NV</v>
     <v>Ferrari NV</v>
-    <v>336.5</v>
-    <v>51.878300000000003</v>
-    <v>336</v>
-    <v>337.1</v>
+    <v>335.9</v>
+    <v>51.862900000000003</v>
+    <v>337</v>
+    <v>340.7</v>
     <v>193923500</v>
     <v>RACE</v>
     <v>Ferrari NV (XMIL:RACE)</v>
-    <v>204186</v>
-    <v>257120</v>
+    <v>272535</v>
+    <v>295490</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -1965,11 +1969,11 @@
     <v>Powered by Refinitiv</v>
     <v>369.91</v>
     <v>209.88</v>
-    <v>0.5988</v>
-    <v>2.2200000000000002</v>
-    <v>6.0419999999999996E-3</v>
-    <v>0.18</v>
-    <v>4.8689999999999996E-4</v>
+    <v>0.57589999999999997</v>
+    <v>3</v>
+    <v>8.2469999999999991E-3</v>
+    <v>0.47</v>
+    <v>1.2820000000000002E-3</v>
     <v>USD</v>
     <v>Ferrari NV, known as Ferrari, is an Italy-based designer, manufacturer and retailer of sports cars that is incorporated in the Netherlands. It operates under the Ferrari brand. Its sports cars portfolio includes, among others, F12berlinetta, FF, Ferrari 488 GTB, 488 Spider, 458 Speciale, Ferrari California T, F12tdf and LaFerrari. The Company also offers financing services through Ferrari Financial Services. It also produces limited series and one-off cars. The Company divides its regional markets in EMEA (Europe, the Middle East, India and Africa), Americas, Greater China and Rest of APAC (Asia-Pacific region, excluding Greater China) and is active in over 60 markets worldwide through a network of authorized dealers.</v>
     <v>4953</v>
@@ -1977,25 +1981,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Via Abetone Inferiore No. 4, MARANELLO, MODENA, 41053 IT</v>
-    <v>369.91</v>
+    <v>368.25</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45258.008891897654</v>
+    <v>45268.980959305467</v>
     <v>3</v>
-    <v>367.79</v>
-    <v>64950120000</v>
+    <v>364.8</v>
+    <v>65352220000</v>
     <v>Ferrari NV</v>
     <v>Ferrari NV</v>
-    <v>367.99</v>
-    <v>53.820999999999998</v>
-    <v>367.44</v>
-    <v>369.66</v>
-    <v>369.84</v>
+    <v>364.84</v>
+    <v>52.960500000000003</v>
+    <v>363.75</v>
+    <v>366.75</v>
+    <v>367.22</v>
     <v>193923500</v>
     <v>RACE</v>
     <v>Ferrari NV (XNYS:RACE)</v>
-    <v>207521</v>
-    <v>357695</v>
+    <v>387917</v>
+    <v>316512</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -15913,7 +15917,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>64950120000</v>
+        <v>65352220000</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>199</v>
@@ -15941,14 +15945,14 @@
       </c>
       <c r="I3" s="53">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>45123101659.412117</v>
+        <v>47834594139.748451</v>
       </c>
       <c r="J3" s="54" t="s">
         <v>203</v>
       </c>
       <c r="K3" s="55">
         <f>(Financials!L172*-1)/Model!A3</f>
-        <v>4.1114386547707691E-3</v>
+        <v>4.0861417408620546E-3</v>
       </c>
       <c r="L3" s="56" t="s">
         <v>210</v>
@@ -15991,14 +15995,14 @@
       </c>
       <c r="I4" s="41">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>38616712270.131683</v>
+        <v>41008052896.814316</v>
       </c>
       <c r="J4" s="59" t="s">
         <v>209</v>
       </c>
       <c r="K4" s="61" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>6.0419999999999996E-3</v>
+        <v>8.2469999999999991E-3</v>
       </c>
       <c r="L4" s="62" t="s">
         <v>249</v>
@@ -16041,14 +16045,14 @@
       </c>
       <c r="I5" s="41">
         <f>I4+G5-G6</f>
-        <v>36906884040.131683</v>
+        <v>39298224666.814316</v>
       </c>
       <c r="J5" s="59" t="s">
         <v>216</v>
       </c>
       <c r="K5" s="64" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>369.66</v>
+        <v>366.75</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>217</v>
@@ -16066,7 +16070,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="66">
         <f>O20/F10</f>
-        <v>10.530175097276265</v>
+        <v>10.595366407263294</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>219</v>
@@ -16094,14 +16098,14 @@
       </c>
       <c r="I6" s="61">
         <f>N25</f>
-        <v>6.5888146695366981E-2</v>
+        <v>6.3570411920081199E-2</v>
       </c>
       <c r="J6" s="59" t="s">
         <v>222</v>
       </c>
       <c r="K6" s="67">
         <f>I5/G4</f>
-        <v>197.34026477239254</v>
+        <v>210.12670840489722</v>
       </c>
       <c r="L6" s="68" t="s">
         <v>223</v>
@@ -16119,14 +16123,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="69">
         <f>O20/F12</f>
-        <v>51.753083665338643</v>
+        <v>52.073482071713144</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>225</v>
       </c>
       <c r="C7" s="71">
         <f>F15/A3</f>
-        <v>1.5966098292043186E-2</v>
+        <v>1.5867861872175114E-2</v>
       </c>
       <c r="D7" s="70" t="s">
         <v>226</v>
@@ -16153,7 +16157,7 @@
       </c>
       <c r="K7" s="77">
         <f>K6/K5-1</f>
-        <v>-0.46615737495971288</v>
+        <v>-0.42705737312911463</v>
       </c>
       <c r="L7" s="78" t="s">
         <v>229</v>
@@ -16466,7 +16470,7 @@
       </c>
       <c r="O14" s="108">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.4839999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="40"/>
     </row>
@@ -16511,7 +16515,7 @@
       </c>
       <c r="O15" s="109" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.5988</v>
+        <v>0.57589999999999997</v>
       </c>
       <c r="P15" s="40"/>
     </row>
@@ -16612,7 +16616,7 @@
       </c>
       <c r="O17" s="111">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>6.8289007999999998E-2</v>
+        <v>6.585276100000001E-2</v>
       </c>
       <c r="P17" s="40"/>
     </row>
@@ -16688,7 +16692,7 @@
       </c>
       <c r="O20" s="112" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>64950120000</v>
+        <v>65352220000</v>
       </c>
       <c r="P20" s="40"/>
     </row>
@@ -16716,7 +16720,7 @@
       </c>
       <c r="O21" s="112">
         <f>O19+O20</f>
-        <v>67875239269</v>
+        <v>68277339269</v>
       </c>
       <c r="P21" s="40"/>
     </row>
@@ -16742,7 +16746,7 @@
       </c>
       <c r="O22" s="113">
         <f>(O19/O21)</f>
-        <v>4.3095527920090311E-2</v>
+        <v>4.2841729046815588E-2</v>
       </c>
       <c r="P22" s="40"/>
     </row>
@@ -16765,7 +16769,7 @@
       </c>
       <c r="O23" s="114">
         <f>O20/O21</f>
-        <v>0.9569044720799097</v>
+        <v>0.9571582709531844</v>
       </c>
       <c r="P23" s="40"/>
     </row>
@@ -16805,7 +16809,7 @@
       <c r="M25" s="43"/>
       <c r="N25" s="118">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.5888146695366981E-2</v>
+        <v>6.3570411920081199E-2</v>
       </c>
       <c r="O25" s="119"/>
       <c r="P25" s="40"/>
